--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>151000</v>
+        <v>147300</v>
       </c>
       <c r="E8" s="3">
-        <v>81600</v>
+        <v>79600</v>
       </c>
       <c r="F8" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>79700</v>
+        <v>77700</v>
       </c>
       <c r="E9" s="3">
-        <v>53400</v>
+        <v>52100</v>
       </c>
       <c r="F9" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>71400</v>
+        <v>69600</v>
       </c>
       <c r="E10" s="3">
-        <v>28200</v>
+        <v>27500</v>
       </c>
       <c r="F10" s="3">
         <v>-700</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="E12" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="F12" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>152500</v>
+        <v>148700</v>
       </c>
       <c r="E17" s="3">
-        <v>89600</v>
+        <v>87400</v>
       </c>
       <c r="F17" s="3">
-        <v>36700</v>
+        <v>35800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="F18" s="3">
-        <v>-28800</v>
+        <v>-28100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="3">
         <v>-1500</v>
@@ -1021,10 +1021,10 @@
         <v>1800</v>
       </c>
       <c r="E21" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="F21" s="3">
-        <v>-28300</v>
+        <v>-27600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1075,10 +1075,10 @@
         <v>1100</v>
       </c>
       <c r="E23" s="3">
-        <v>-9500</v>
+        <v>-9300</v>
       </c>
       <c r="F23" s="3">
-        <v>-28700</v>
+        <v>-28000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1102,7 +1102,7 @@
         <v>800</v>
       </c>
       <c r="E24" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>-12200</v>
+        <v>-11900</v>
       </c>
       <c r="F26" s="3">
-        <v>-28800</v>
+        <v>-28100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E27" s="3">
-        <v>-18700</v>
+        <v>-18200</v>
       </c>
       <c r="F27" s="3">
-        <v>-34800</v>
+        <v>-33900</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E32" s="3">
         <v>1500</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E33" s="3">
-        <v>-18700</v>
+        <v>-18200</v>
       </c>
       <c r="F33" s="3">
-        <v>-34800</v>
+        <v>-33900</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E35" s="3">
-        <v>-18700</v>
+        <v>-18200</v>
       </c>
       <c r="F35" s="3">
-        <v>-34800</v>
+        <v>-33900</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65600</v>
+        <v>64100</v>
       </c>
       <c r="E41" s="3">
-        <v>53200</v>
+        <v>52000</v>
       </c>
       <c r="F41" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,7 +1508,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E42" s="3">
         <v>300</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>204000</v>
+        <v>199300</v>
       </c>
       <c r="E43" s="3">
-        <v>257300</v>
+        <v>251300</v>
       </c>
       <c r="F43" s="3">
-        <v>68600</v>
+        <v>67000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45300</v>
+        <v>44200</v>
       </c>
       <c r="E45" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="F45" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>317900</v>
+        <v>310500</v>
       </c>
       <c r="E46" s="3">
-        <v>319400</v>
+        <v>312000</v>
       </c>
       <c r="F46" s="3">
-        <v>75000</v>
+        <v>73300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="E47" s="3">
-        <v>26600</v>
+        <v>25900</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>1100</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E49" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F49" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>339800</v>
+        <v>331900</v>
       </c>
       <c r="E54" s="3">
-        <v>351600</v>
+        <v>343500</v>
       </c>
       <c r="F54" s="3">
-        <v>80600</v>
+        <v>78800</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="E57" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>129100</v>
+        <v>126100</v>
       </c>
       <c r="E58" s="3">
-        <v>209900</v>
+        <v>205100</v>
       </c>
       <c r="F58" s="3">
-        <v>54800</v>
+        <v>53600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49000</v>
+        <v>47900</v>
       </c>
       <c r="E59" s="3">
-        <v>74200</v>
+        <v>72500</v>
       </c>
       <c r="F59" s="3">
-        <v>26100</v>
+        <v>25500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>183700</v>
+        <v>179500</v>
       </c>
       <c r="E60" s="3">
-        <v>290300</v>
+        <v>283600</v>
       </c>
       <c r="F60" s="3">
-        <v>82000</v>
+        <v>80100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E61" s="3">
-        <v>67400</v>
+        <v>65800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>188100</v>
+        <v>183700</v>
       </c>
       <c r="E66" s="3">
-        <v>360600</v>
+        <v>352200</v>
       </c>
       <c r="F66" s="3">
-        <v>82000</v>
+        <v>80100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-125000</v>
+        <v>-122100</v>
       </c>
       <c r="E72" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>151700</v>
+        <v>148200</v>
       </c>
       <c r="E76" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="F76" s="3">
         <v>-1300</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E81" s="3">
-        <v>-18700</v>
+        <v>-18200</v>
       </c>
       <c r="F81" s="3">
-        <v>-34800</v>
+        <v>-33900</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15500</v>
+        <v>15200</v>
       </c>
       <c r="E89" s="3">
-        <v>28300</v>
+        <v>27600</v>
       </c>
       <c r="F89" s="3">
-        <v>-17700</v>
+        <v>-17200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>36000</v>
+        <v>35100</v>
       </c>
       <c r="E94" s="3">
-        <v>-207300</v>
+        <v>-202200</v>
       </c>
       <c r="F94" s="3">
-        <v>-15500</v>
+        <v>-15100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7100</v>
+        <v>-6900</v>
       </c>
       <c r="E100" s="3">
-        <v>229000</v>
+        <v>223400</v>
       </c>
       <c r="F100" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>47900</v>
+        <v>46800</v>
       </c>
       <c r="E102" s="3">
-        <v>50000</v>
+        <v>48800</v>
       </c>
       <c r="F102" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>147300</v>
+        <v>186700</v>
       </c>
       <c r="E8" s="3">
-        <v>79600</v>
+        <v>232900</v>
       </c>
       <c r="F8" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>82600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +735,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>77700</v>
+        <v>111800</v>
       </c>
       <c r="E9" s="3">
-        <v>52100</v>
+        <v>157500</v>
       </c>
       <c r="F9" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>54100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,24 +765,27 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>69600</v>
+        <v>74900</v>
       </c>
       <c r="E10" s="3">
-        <v>27500</v>
+        <v>75400</v>
       </c>
       <c r="F10" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G10" s="3">
         <v>-700</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,22 +812,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13300</v>
+        <v>11500</v>
       </c>
       <c r="E12" s="3">
-        <v>10000</v>
+        <v>13800</v>
       </c>
       <c r="F12" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7400</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +869,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>148700</v>
+        <v>321500</v>
       </c>
       <c r="E17" s="3">
-        <v>87400</v>
+        <v>231300</v>
       </c>
       <c r="F17" s="3">
-        <v>35800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>90700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>37200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1400</v>
+        <v>-134800</v>
       </c>
       <c r="E18" s="3">
-        <v>-7800</v>
+        <v>1600</v>
       </c>
       <c r="F18" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-8100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-29200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,23 +1017,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1500</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-129600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1800</v>
       </c>
-      <c r="E21" s="3">
-        <v>-8700</v>
-      </c>
       <c r="F21" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-9000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-28700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-9300</v>
-      </c>
       <c r="F23" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-9600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-29100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,23 +1134,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
-        <v>2600</v>
-      </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-11900</v>
-      </c>
       <c r="F26" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-12300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-29100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10400</v>
+        <v>-131600</v>
       </c>
       <c r="E27" s="3">
-        <v>-18200</v>
+        <v>-10800</v>
       </c>
       <c r="F27" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-35200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,24 +1374,27 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="E32" s="3">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10400</v>
+        <v>-131600</v>
       </c>
       <c r="E33" s="3">
-        <v>-18200</v>
+        <v>-10800</v>
       </c>
       <c r="F33" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-35200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10400</v>
+        <v>-131600</v>
       </c>
       <c r="E35" s="3">
-        <v>-18200</v>
+        <v>-10800</v>
       </c>
       <c r="F35" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-35200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64100</v>
+        <v>14900</v>
       </c>
       <c r="E41" s="3">
-        <v>52000</v>
+        <v>66400</v>
       </c>
       <c r="F41" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>53900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,23 +1587,26 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2900</v>
+        <v>13300</v>
       </c>
       <c r="E42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>199300</v>
+        <v>73800</v>
       </c>
       <c r="E43" s="3">
-        <v>251300</v>
+        <v>208300</v>
       </c>
       <c r="F43" s="3">
-        <v>67000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>260400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>69400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,23 +1677,26 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44200</v>
+        <v>66400</v>
       </c>
       <c r="E45" s="3">
-        <v>8400</v>
+        <v>45600</v>
       </c>
       <c r="F45" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>8800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>310500</v>
+        <v>168400</v>
       </c>
       <c r="E46" s="3">
-        <v>312000</v>
+        <v>321000</v>
       </c>
       <c r="F46" s="3">
-        <v>73300</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>323300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>75900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,23 +1737,26 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10800</v>
+        <v>20500</v>
       </c>
       <c r="E47" s="3">
-        <v>25900</v>
+        <v>11900</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>26900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,24 +1767,27 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
-        <v>900</v>
-      </c>
       <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,23 +1797,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4400</v>
+        <v>12300</v>
       </c>
       <c r="E49" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F49" s="3">
         <v>4800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>5000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,17 +1887,20 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5200</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>23300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5400</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>331900</v>
+        <v>226600</v>
       </c>
       <c r="E54" s="3">
-        <v>343500</v>
+        <v>343900</v>
       </c>
       <c r="F54" s="3">
-        <v>78800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>355900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>81600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,23 +2008,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5400</v>
+        <v>8400</v>
       </c>
       <c r="E57" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="F57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,23 +2035,26 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>126100</v>
+        <v>101800</v>
       </c>
       <c r="E58" s="3">
-        <v>205100</v>
+        <v>132900</v>
       </c>
       <c r="F58" s="3">
-        <v>53600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>212500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>55500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47900</v>
+        <v>46900</v>
       </c>
       <c r="E59" s="3">
-        <v>72500</v>
+        <v>49600</v>
       </c>
       <c r="F59" s="3">
-        <v>25500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>75100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>26400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2095,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>179500</v>
+        <v>157100</v>
       </c>
       <c r="E60" s="3">
-        <v>283600</v>
+        <v>186000</v>
       </c>
       <c r="F60" s="3">
-        <v>80100</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>293800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>83000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3000</v>
+        <v>14700</v>
       </c>
       <c r="E61" s="3">
-        <v>65800</v>
+        <v>3100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>68200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,23 +2155,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="E62" s="3">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>183700</v>
+        <v>199100</v>
       </c>
       <c r="E66" s="3">
-        <v>352200</v>
+        <v>190400</v>
       </c>
       <c r="F66" s="3">
-        <v>80100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>365000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>83000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,24 +2439,27 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-122100</v>
+        <v>-265900</v>
       </c>
       <c r="E72" s="3">
-        <v>-8700</v>
+        <v>-126500</v>
       </c>
       <c r="F72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,24 +2559,27 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>148200</v>
+        <v>27500</v>
       </c>
       <c r="E76" s="3">
-        <v>-8700</v>
+        <v>153500</v>
       </c>
       <c r="F76" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10400</v>
+        <v>-131600</v>
       </c>
       <c r="E81" s="3">
-        <v>-18200</v>
+        <v>-10800</v>
       </c>
       <c r="F81" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-35200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,23 +2701,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15200</v>
+        <v>25400</v>
       </c>
       <c r="E89" s="3">
-        <v>27600</v>
+        <v>15700</v>
       </c>
       <c r="F89" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>28700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-17900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,23 +2925,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>35100</v>
+        <v>-78200</v>
       </c>
       <c r="E94" s="3">
-        <v>-202200</v>
+        <v>36400</v>
       </c>
       <c r="F94" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-209800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-15700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6900</v>
+        <v>32600</v>
       </c>
       <c r="E100" s="3">
-        <v>223400</v>
+        <v>-7200</v>
       </c>
       <c r="F100" s="3">
-        <v>35900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>231800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>37300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,23 +3206,26 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>46800</v>
+        <v>-18800</v>
       </c>
       <c r="E102" s="3">
-        <v>48800</v>
+        <v>48500</v>
       </c>
       <c r="F102" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>50600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>3700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>186700</v>
+        <v>195500</v>
       </c>
       <c r="E8" s="3">
-        <v>232900</v>
+        <v>243900</v>
       </c>
       <c r="F8" s="3">
-        <v>82600</v>
+        <v>86500</v>
       </c>
       <c r="G8" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>111800</v>
+        <v>117100</v>
       </c>
       <c r="E9" s="3">
-        <v>157500</v>
+        <v>165000</v>
       </c>
       <c r="F9" s="3">
-        <v>54100</v>
+        <v>56700</v>
       </c>
       <c r="G9" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>74900</v>
+        <v>78400</v>
       </c>
       <c r="E10" s="3">
-        <v>75400</v>
+        <v>78900</v>
       </c>
       <c r="F10" s="3">
-        <v>28500</v>
+        <v>29900</v>
       </c>
       <c r="G10" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="E12" s="3">
-        <v>13800</v>
+        <v>14400</v>
       </c>
       <c r="F12" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="G12" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29000</v>
+        <v>30400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>321500</v>
+        <v>336700</v>
       </c>
       <c r="E17" s="3">
-        <v>231300</v>
+        <v>242200</v>
       </c>
       <c r="F17" s="3">
-        <v>90700</v>
+        <v>95000</v>
       </c>
       <c r="G17" s="3">
-        <v>37200</v>
+        <v>38900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-134800</v>
+        <v>-141200</v>
       </c>
       <c r="E18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F18" s="3">
-        <v>-8100</v>
+        <v>-8500</v>
       </c>
       <c r="G18" s="3">
-        <v>-29200</v>
+        <v>-30600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-129600</v>
+        <v>-135700</v>
       </c>
       <c r="E21" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F21" s="3">
-        <v>-9000</v>
+        <v>-9500</v>
       </c>
       <c r="G21" s="3">
-        <v>-28700</v>
+        <v>-30000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-131400</v>
+        <v>-137600</v>
       </c>
       <c r="E23" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F23" s="3">
-        <v>-9600</v>
+        <v>-10100</v>
       </c>
       <c r="G23" s="3">
-        <v>-29100</v>
+        <v>-30500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1147,10 +1147,10 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F24" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-131600</v>
+        <v>-137900</v>
       </c>
       <c r="E26" s="3">
         <v>300</v>
       </c>
       <c r="F26" s="3">
-        <v>-12300</v>
+        <v>-12900</v>
       </c>
       <c r="G26" s="3">
-        <v>-29100</v>
+        <v>-30500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-131600</v>
+        <v>-137800</v>
       </c>
       <c r="E27" s="3">
-        <v>-10800</v>
+        <v>-11300</v>
       </c>
       <c r="F27" s="3">
-        <v>-18900</v>
+        <v>-19800</v>
       </c>
       <c r="G27" s="3">
-        <v>-35200</v>
+        <v>-36900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-131600</v>
+        <v>-137800</v>
       </c>
       <c r="E33" s="3">
-        <v>-10800</v>
+        <v>-11300</v>
       </c>
       <c r="F33" s="3">
-        <v>-18900</v>
+        <v>-19800</v>
       </c>
       <c r="G33" s="3">
-        <v>-35200</v>
+        <v>-36900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-131600</v>
+        <v>-137800</v>
       </c>
       <c r="E35" s="3">
-        <v>-10800</v>
+        <v>-11300</v>
       </c>
       <c r="F35" s="3">
-        <v>-18900</v>
+        <v>-19800</v>
       </c>
       <c r="G35" s="3">
-        <v>-35200</v>
+        <v>-36900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="E41" s="3">
-        <v>66400</v>
+        <v>69600</v>
       </c>
       <c r="F41" s="3">
-        <v>53900</v>
+        <v>56400</v>
       </c>
       <c r="G41" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1597,10 +1597,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13300</v>
+        <v>13900</v>
       </c>
       <c r="E42" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F42" s="3">
         <v>300</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>73800</v>
+        <v>77300</v>
       </c>
       <c r="E43" s="3">
-        <v>208300</v>
+        <v>218200</v>
       </c>
       <c r="F43" s="3">
-        <v>260400</v>
+        <v>272800</v>
       </c>
       <c r="G43" s="3">
-        <v>69400</v>
+        <v>72700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66400</v>
+        <v>69600</v>
       </c>
       <c r="E45" s="3">
-        <v>45600</v>
+        <v>47700</v>
       </c>
       <c r="F45" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="G45" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>168400</v>
+        <v>176400</v>
       </c>
       <c r="E46" s="3">
-        <v>321000</v>
+        <v>336200</v>
       </c>
       <c r="F46" s="3">
-        <v>323300</v>
+        <v>338600</v>
       </c>
       <c r="G46" s="3">
-        <v>75900</v>
+        <v>79500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="E47" s="3">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="F47" s="3">
-        <v>26900</v>
+        <v>28200</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E48" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12300</v>
+        <v>12900</v>
       </c>
       <c r="E49" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="F49" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G49" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,10 +1897,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23300</v>
+        <v>24400</v>
       </c>
       <c r="E52" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>226600</v>
+        <v>237400</v>
       </c>
       <c r="E54" s="3">
-        <v>343900</v>
+        <v>360200</v>
       </c>
       <c r="F54" s="3">
-        <v>355900</v>
+        <v>372800</v>
       </c>
       <c r="G54" s="3">
-        <v>81600</v>
+        <v>85500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="F57" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>101800</v>
+        <v>106700</v>
       </c>
       <c r="E58" s="3">
-        <v>132900</v>
+        <v>139200</v>
       </c>
       <c r="F58" s="3">
-        <v>212500</v>
+        <v>222600</v>
       </c>
       <c r="G58" s="3">
-        <v>55500</v>
+        <v>58200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46900</v>
+        <v>49100</v>
       </c>
       <c r="E59" s="3">
-        <v>49600</v>
+        <v>52000</v>
       </c>
       <c r="F59" s="3">
-        <v>75100</v>
+        <v>78700</v>
       </c>
       <c r="G59" s="3">
-        <v>26400</v>
+        <v>27700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>157100</v>
+        <v>164500</v>
       </c>
       <c r="E60" s="3">
-        <v>186000</v>
+        <v>194800</v>
       </c>
       <c r="F60" s="3">
-        <v>293800</v>
+        <v>307800</v>
       </c>
       <c r="G60" s="3">
-        <v>83000</v>
+        <v>86900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14700</v>
+        <v>15400</v>
       </c>
       <c r="E61" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="F61" s="3">
-        <v>68200</v>
+        <v>71500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="E62" s="3">
         <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>199100</v>
+        <v>208600</v>
       </c>
       <c r="E66" s="3">
-        <v>190400</v>
+        <v>199400</v>
       </c>
       <c r="F66" s="3">
-        <v>365000</v>
+        <v>382300</v>
       </c>
       <c r="G66" s="3">
-        <v>83000</v>
+        <v>86900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-265900</v>
+        <v>-278500</v>
       </c>
       <c r="E72" s="3">
-        <v>-126500</v>
+        <v>-132500</v>
       </c>
       <c r="F72" s="3">
-        <v>-9000</v>
+        <v>-9500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27500</v>
+        <v>28800</v>
       </c>
       <c r="E76" s="3">
-        <v>153500</v>
+        <v>160800</v>
       </c>
       <c r="F76" s="3">
-        <v>-9000</v>
+        <v>-9500</v>
       </c>
       <c r="G76" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-131600</v>
+        <v>-137800</v>
       </c>
       <c r="E81" s="3">
-        <v>-10800</v>
+        <v>-11300</v>
       </c>
       <c r="F81" s="3">
-        <v>-18900</v>
+        <v>-19800</v>
       </c>
       <c r="G81" s="3">
-        <v>-35200</v>
+        <v>-36900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25400</v>
+        <v>26600</v>
       </c>
       <c r="E89" s="3">
-        <v>15700</v>
+        <v>16500</v>
       </c>
       <c r="F89" s="3">
-        <v>28700</v>
+        <v>30000</v>
       </c>
       <c r="G89" s="3">
-        <v>-17900</v>
+        <v>-18700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78200</v>
+        <v>-81900</v>
       </c>
       <c r="E94" s="3">
-        <v>36400</v>
+        <v>38100</v>
       </c>
       <c r="F94" s="3">
-        <v>-209800</v>
+        <v>-219800</v>
       </c>
       <c r="G94" s="3">
-        <v>-15700</v>
+        <v>-16500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>32600</v>
+        <v>34100</v>
       </c>
       <c r="E100" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="F100" s="3">
-        <v>231800</v>
+        <v>242800</v>
       </c>
       <c r="G100" s="3">
-        <v>37300</v>
+        <v>39000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3219,7 +3219,7 @@
         <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18800</v>
+        <v>-19600</v>
       </c>
       <c r="E102" s="3">
-        <v>48500</v>
+        <v>50800</v>
       </c>
       <c r="F102" s="3">
-        <v>50600</v>
+        <v>53000</v>
       </c>
       <c r="G102" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>195500</v>
+        <v>196400</v>
       </c>
       <c r="E8" s="3">
-        <v>243900</v>
+        <v>245000</v>
       </c>
       <c r="F8" s="3">
-        <v>86500</v>
+        <v>86900</v>
       </c>
       <c r="G8" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>117100</v>
+        <v>117600</v>
       </c>
       <c r="E9" s="3">
-        <v>165000</v>
+        <v>165700</v>
       </c>
       <c r="F9" s="3">
-        <v>56700</v>
+        <v>56900</v>
       </c>
       <c r="G9" s="3">
         <v>9100</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>78400</v>
+        <v>78800</v>
       </c>
       <c r="E10" s="3">
-        <v>78900</v>
+        <v>79300</v>
       </c>
       <c r="F10" s="3">
-        <v>29900</v>
+        <v>30000</v>
       </c>
       <c r="G10" s="3">
         <v>-800</v>
@@ -819,10 +819,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="E12" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="F12" s="3">
         <v>10900</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>336700</v>
+        <v>338200</v>
       </c>
       <c r="E17" s="3">
-        <v>242200</v>
+        <v>243300</v>
       </c>
       <c r="F17" s="3">
-        <v>95000</v>
+        <v>95400</v>
       </c>
       <c r="G17" s="3">
-        <v>38900</v>
+        <v>39100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-141200</v>
+        <v>-141800</v>
       </c>
       <c r="E18" s="3">
         <v>1700</v>
@@ -989,7 +989,7 @@
         <v>-8500</v>
       </c>
       <c r="G18" s="3">
-        <v>-30600</v>
+        <v>-30700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
@@ -1054,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-135700</v>
+        <v>-136300</v>
       </c>
       <c r="E21" s="3">
         <v>1900</v>
@@ -1063,7 +1063,7 @@
         <v>-9500</v>
       </c>
       <c r="G21" s="3">
-        <v>-30000</v>
+        <v>-30200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-137600</v>
+        <v>-138200</v>
       </c>
       <c r="E23" s="3">
         <v>1200</v>
@@ -1123,7 +1123,7 @@
         <v>-10100</v>
       </c>
       <c r="G23" s="3">
-        <v>-30500</v>
+        <v>-30600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-137900</v>
+        <v>-138500</v>
       </c>
       <c r="E26" s="3">
         <v>300</v>
       </c>
       <c r="F26" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="G26" s="3">
-        <v>-30500</v>
+        <v>-30600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-137800</v>
+        <v>-138400</v>
       </c>
       <c r="E27" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="F27" s="3">
-        <v>-19800</v>
+        <v>-19900</v>
       </c>
       <c r="G27" s="3">
-        <v>-36900</v>
+        <v>-37000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-137800</v>
+        <v>-138400</v>
       </c>
       <c r="E33" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="F33" s="3">
-        <v>-19800</v>
+        <v>-19900</v>
       </c>
       <c r="G33" s="3">
-        <v>-36900</v>
+        <v>-37000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-137800</v>
+        <v>-138400</v>
       </c>
       <c r="E35" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="F35" s="3">
-        <v>-19800</v>
+        <v>-19900</v>
       </c>
       <c r="G35" s="3">
-        <v>-36900</v>
+        <v>-37000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="E41" s="3">
-        <v>69600</v>
+        <v>69900</v>
       </c>
       <c r="F41" s="3">
-        <v>56400</v>
+        <v>56700</v>
       </c>
       <c r="G41" s="3">
         <v>4200</v>
@@ -1597,7 +1597,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="E42" s="3">
         <v>2400</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>77300</v>
+        <v>77700</v>
       </c>
       <c r="E43" s="3">
-        <v>218200</v>
+        <v>219200</v>
       </c>
       <c r="F43" s="3">
-        <v>272800</v>
+        <v>273900</v>
       </c>
       <c r="G43" s="3">
-        <v>72700</v>
+        <v>73100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,10 +1687,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69600</v>
+        <v>69900</v>
       </c>
       <c r="E45" s="3">
-        <v>47700</v>
+        <v>47900</v>
       </c>
       <c r="F45" s="3">
         <v>9200</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>176400</v>
+        <v>177200</v>
       </c>
       <c r="E46" s="3">
-        <v>336200</v>
+        <v>337700</v>
       </c>
       <c r="F46" s="3">
-        <v>338600</v>
+        <v>340100</v>
       </c>
       <c r="G46" s="3">
-        <v>79500</v>
+        <v>79800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="E47" s="3">
         <v>12500</v>
       </c>
       <c r="F47" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="E49" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F49" s="3">
         <v>5000</v>
       </c>
       <c r="G49" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="E52" s="3">
         <v>5600</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>237400</v>
+        <v>238400</v>
       </c>
       <c r="E54" s="3">
-        <v>360200</v>
+        <v>361800</v>
       </c>
       <c r="F54" s="3">
-        <v>372800</v>
+        <v>374400</v>
       </c>
       <c r="G54" s="3">
-        <v>85500</v>
+        <v>85900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2021,7 +2021,7 @@
         <v>5900</v>
       </c>
       <c r="F57" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>106700</v>
+        <v>107100</v>
       </c>
       <c r="E58" s="3">
-        <v>139200</v>
+        <v>139800</v>
       </c>
       <c r="F58" s="3">
-        <v>222600</v>
+        <v>223500</v>
       </c>
       <c r="G58" s="3">
-        <v>58200</v>
+        <v>58400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49100</v>
+        <v>49300</v>
       </c>
       <c r="E59" s="3">
-        <v>52000</v>
+        <v>52200</v>
       </c>
       <c r="F59" s="3">
-        <v>78700</v>
+        <v>79000</v>
       </c>
       <c r="G59" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>164500</v>
+        <v>165200</v>
       </c>
       <c r="E60" s="3">
-        <v>194800</v>
+        <v>195600</v>
       </c>
       <c r="F60" s="3">
-        <v>307800</v>
+        <v>309100</v>
       </c>
       <c r="G60" s="3">
-        <v>86900</v>
+        <v>87300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="E61" s="3">
         <v>3300</v>
       </c>
       <c r="F61" s="3">
-        <v>71500</v>
+        <v>71800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>208600</v>
+        <v>209500</v>
       </c>
       <c r="E66" s="3">
-        <v>199400</v>
+        <v>200300</v>
       </c>
       <c r="F66" s="3">
-        <v>382300</v>
+        <v>383900</v>
       </c>
       <c r="G66" s="3">
-        <v>86900</v>
+        <v>87300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,10 +2449,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-278500</v>
+        <v>-279700</v>
       </c>
       <c r="E72" s="3">
-        <v>-132500</v>
+        <v>-133100</v>
       </c>
       <c r="F72" s="3">
         <v>-9500</v>
@@ -2569,10 +2569,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="E76" s="3">
-        <v>160800</v>
+        <v>161500</v>
       </c>
       <c r="F76" s="3">
         <v>-9500</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-137800</v>
+        <v>-138400</v>
       </c>
       <c r="E81" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="F81" s="3">
-        <v>-19800</v>
+        <v>-19900</v>
       </c>
       <c r="G81" s="3">
-        <v>-36900</v>
+        <v>-37000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2717,7 +2717,7 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26600</v>
+        <v>26700</v>
       </c>
       <c r="E89" s="3">
         <v>16500</v>
       </c>
       <c r="F89" s="3">
-        <v>30000</v>
+        <v>30200</v>
       </c>
       <c r="G89" s="3">
-        <v>-18700</v>
+        <v>-18800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81900</v>
+        <v>-82300</v>
       </c>
       <c r="E94" s="3">
-        <v>38100</v>
+        <v>38300</v>
       </c>
       <c r="F94" s="3">
-        <v>-219800</v>
+        <v>-220700</v>
       </c>
       <c r="G94" s="3">
         <v>-16500</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>34100</v>
+        <v>34300</v>
       </c>
       <c r="E100" s="3">
         <v>-7500</v>
       </c>
       <c r="F100" s="3">
-        <v>242800</v>
+        <v>243800</v>
       </c>
       <c r="G100" s="3">
-        <v>39000</v>
+        <v>39200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19600</v>
+        <v>-19700</v>
       </c>
       <c r="E102" s="3">
-        <v>50800</v>
+        <v>51100</v>
       </c>
       <c r="F102" s="3">
-        <v>53000</v>
+        <v>53300</v>
       </c>
       <c r="G102" s="3">
         <v>3900</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>196400</v>
+        <v>59000</v>
       </c>
       <c r="E8" s="3">
-        <v>245000</v>
+        <v>200500</v>
       </c>
       <c r="F8" s="3">
-        <v>86900</v>
+        <v>250200</v>
       </c>
       <c r="G8" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>88700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>117600</v>
+        <v>44600</v>
       </c>
       <c r="E9" s="3">
-        <v>165700</v>
+        <v>120100</v>
       </c>
       <c r="F9" s="3">
-        <v>56900</v>
+        <v>169200</v>
       </c>
       <c r="G9" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>58100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,27 +774,30 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>78800</v>
+        <v>14400</v>
       </c>
       <c r="E10" s="3">
-        <v>79300</v>
+        <v>80400</v>
       </c>
       <c r="F10" s="3">
-        <v>30000</v>
+        <v>81000</v>
       </c>
       <c r="G10" s="3">
+        <v>30600</v>
+      </c>
+      <c r="H10" s="3">
         <v>-800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,25 +825,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12100</v>
+        <v>5900</v>
       </c>
       <c r="E12" s="3">
-        <v>14500</v>
+        <v>12300</v>
       </c>
       <c r="F12" s="3">
-        <v>10900</v>
+        <v>14800</v>
       </c>
       <c r="G12" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>11200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,26 +888,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30600</v>
+        <v>13300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>338200</v>
+        <v>93800</v>
       </c>
       <c r="E17" s="3">
-        <v>243300</v>
+        <v>345400</v>
       </c>
       <c r="F17" s="3">
-        <v>95400</v>
+        <v>248400</v>
       </c>
       <c r="G17" s="3">
-        <v>39100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>97400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>39900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-141800</v>
+        <v>-34800</v>
       </c>
       <c r="E18" s="3">
-        <v>1700</v>
+        <v>-144800</v>
       </c>
       <c r="F18" s="3">
-        <v>-8500</v>
+        <v>1800</v>
       </c>
       <c r="G18" s="3">
-        <v>-30700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-8700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-31400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,26 +1050,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-136300</v>
+        <v>-36200</v>
       </c>
       <c r="E21" s="3">
-        <v>1900</v>
+        <v>-139200</v>
       </c>
       <c r="F21" s="3">
-        <v>-9500</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="3">
-        <v>-30200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-9700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-30800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,26 +1146,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-138200</v>
+        <v>-38500</v>
       </c>
       <c r="E23" s="3">
+        <v>-141100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-10100</v>
-      </c>
       <c r="G23" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-10400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-31300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,26 +1179,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
-        <v>2800</v>
-      </c>
       <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-138500</v>
+        <v>-46200</v>
       </c>
       <c r="E26" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-13000</v>
-      </c>
       <c r="G26" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-13200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-31300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-138400</v>
+        <v>-45900</v>
       </c>
       <c r="E27" s="3">
-        <v>-11400</v>
+        <v>-141300</v>
       </c>
       <c r="F27" s="3">
-        <v>-19900</v>
+        <v>-11600</v>
       </c>
       <c r="G27" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-20300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-37800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,27 +1443,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
-        <v>1600</v>
-      </c>
       <c r="G32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-138400</v>
+        <v>-45900</v>
       </c>
       <c r="E33" s="3">
-        <v>-11400</v>
+        <v>-141300</v>
       </c>
       <c r="F33" s="3">
-        <v>-19900</v>
+        <v>-11600</v>
       </c>
       <c r="G33" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-20300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-37800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-138400</v>
+        <v>-45900</v>
       </c>
       <c r="E35" s="3">
-        <v>-11400</v>
+        <v>-141300</v>
       </c>
       <c r="F35" s="3">
-        <v>-19900</v>
+        <v>-11600</v>
       </c>
       <c r="G35" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-20300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-37800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15700</v>
+        <v>58800</v>
       </c>
       <c r="E41" s="3">
-        <v>69900</v>
+        <v>16000</v>
       </c>
       <c r="F41" s="3">
-        <v>56700</v>
+        <v>71400</v>
       </c>
       <c r="G41" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>57900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,26 +1676,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14000</v>
+        <v>2900</v>
       </c>
       <c r="E42" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F42" s="3">
         <v>2400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>77700</v>
+        <v>19800</v>
       </c>
       <c r="E43" s="3">
-        <v>219200</v>
+        <v>79300</v>
       </c>
       <c r="F43" s="3">
-        <v>273900</v>
+        <v>223800</v>
       </c>
       <c r="G43" s="3">
-        <v>73100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>279700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>74600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,26 +1775,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69900</v>
+        <v>30900</v>
       </c>
       <c r="E45" s="3">
-        <v>47900</v>
+        <v>71300</v>
       </c>
       <c r="F45" s="3">
-        <v>9200</v>
+        <v>49000</v>
       </c>
       <c r="G45" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>9400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>177200</v>
+        <v>112500</v>
       </c>
       <c r="E46" s="3">
-        <v>337700</v>
+        <v>180900</v>
       </c>
       <c r="F46" s="3">
-        <v>340100</v>
+        <v>344800</v>
       </c>
       <c r="G46" s="3">
-        <v>79800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>347300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>81500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21600</v>
+        <v>19500</v>
       </c>
       <c r="E47" s="3">
-        <v>12500</v>
+        <v>22100</v>
       </c>
       <c r="F47" s="3">
-        <v>28300</v>
+        <v>12800</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>28900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,26 +1874,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
-        <v>700</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1800,26 +1907,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13000</v>
+        <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>4800</v>
+        <v>13300</v>
       </c>
       <c r="F49" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G49" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>5100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,20 +2006,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24500</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>25000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>238400</v>
+        <v>152700</v>
       </c>
       <c r="E54" s="3">
-        <v>361800</v>
+        <v>243500</v>
       </c>
       <c r="F54" s="3">
-        <v>374400</v>
+        <v>369400</v>
       </c>
       <c r="G54" s="3">
-        <v>85900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>382300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>87700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,26 +2138,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8800</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>5900</v>
+        <v>9000</v>
       </c>
       <c r="F57" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="G57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,26 +2168,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>107100</v>
+        <v>20700</v>
       </c>
       <c r="E58" s="3">
-        <v>139800</v>
+        <v>109400</v>
       </c>
       <c r="F58" s="3">
-        <v>223500</v>
+        <v>142700</v>
       </c>
       <c r="G58" s="3">
-        <v>58400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>228300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>59600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49300</v>
+        <v>59000</v>
       </c>
       <c r="E59" s="3">
-        <v>52200</v>
+        <v>50300</v>
       </c>
       <c r="F59" s="3">
-        <v>79000</v>
+        <v>53300</v>
       </c>
       <c r="G59" s="3">
-        <v>27800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>80700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>28400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>165200</v>
+        <v>81400</v>
       </c>
       <c r="E60" s="3">
-        <v>195600</v>
+        <v>168700</v>
       </c>
       <c r="F60" s="3">
-        <v>309100</v>
+        <v>199800</v>
       </c>
       <c r="G60" s="3">
-        <v>87300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>315700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>89100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15500</v>
+        <v>62400</v>
       </c>
       <c r="E61" s="3">
-        <v>3300</v>
+        <v>15800</v>
       </c>
       <c r="F61" s="3">
-        <v>71800</v>
+        <v>3400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>73300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,26 +2300,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
-        <v>1300</v>
-      </c>
       <c r="F62" s="3">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>209500</v>
+        <v>171200</v>
       </c>
       <c r="E66" s="3">
-        <v>200300</v>
+        <v>213900</v>
       </c>
       <c r="F66" s="3">
-        <v>383900</v>
+        <v>204500</v>
       </c>
       <c r="G66" s="3">
-        <v>87300</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>392100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>89100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,27 +2612,30 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-279700</v>
+        <v>-331500</v>
       </c>
       <c r="E72" s="3">
-        <v>-133100</v>
+        <v>-285700</v>
       </c>
       <c r="F72" s="3">
-        <v>-9500</v>
+        <v>-135900</v>
       </c>
       <c r="G72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,27 +2744,30 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29000</v>
+        <v>-18600</v>
       </c>
       <c r="E76" s="3">
-        <v>161500</v>
+        <v>29600</v>
       </c>
       <c r="F76" s="3">
-        <v>-9500</v>
+        <v>164900</v>
       </c>
       <c r="G76" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-138400</v>
+        <v>-45900</v>
       </c>
       <c r="E81" s="3">
-        <v>-11400</v>
+        <v>-141300</v>
       </c>
       <c r="F81" s="3">
-        <v>-19900</v>
+        <v>-11600</v>
       </c>
       <c r="G81" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-20300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-37800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,26 +2899,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26700</v>
+        <v>8900</v>
       </c>
       <c r="E89" s="3">
-        <v>16500</v>
+        <v>27300</v>
       </c>
       <c r="F89" s="3">
-        <v>30200</v>
+        <v>16900</v>
       </c>
       <c r="G89" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>30800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-19200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,26 +3145,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1500</v>
+        <v>-15300</v>
       </c>
       <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-82300</v>
+        <v>30100</v>
       </c>
       <c r="E94" s="3">
-        <v>38300</v>
+        <v>-84000</v>
       </c>
       <c r="F94" s="3">
-        <v>-220700</v>
+        <v>39100</v>
       </c>
       <c r="G94" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-225400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-16900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>34300</v>
+        <v>-44700</v>
       </c>
       <c r="E100" s="3">
-        <v>-7500</v>
+        <v>35000</v>
       </c>
       <c r="F100" s="3">
-        <v>243800</v>
+        <v>-7700</v>
       </c>
       <c r="G100" s="3">
-        <v>39200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>249000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>40000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,26 +3454,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>3700</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19700</v>
+        <v>-9100</v>
       </c>
       <c r="E102" s="3">
-        <v>51100</v>
+        <v>-20100</v>
       </c>
       <c r="F102" s="3">
-        <v>53300</v>
+        <v>52100</v>
       </c>
       <c r="G102" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>54400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>4000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>59000</v>
+        <v>58200</v>
       </c>
       <c r="E8" s="3">
-        <v>200500</v>
+        <v>197900</v>
       </c>
       <c r="F8" s="3">
-        <v>250200</v>
+        <v>246900</v>
       </c>
       <c r="G8" s="3">
-        <v>88700</v>
+        <v>87600</v>
       </c>
       <c r="H8" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44600</v>
+        <v>44000</v>
       </c>
       <c r="E9" s="3">
-        <v>120100</v>
+        <v>118500</v>
       </c>
       <c r="F9" s="3">
-        <v>169200</v>
+        <v>167000</v>
       </c>
       <c r="G9" s="3">
-        <v>58100</v>
+        <v>57300</v>
       </c>
       <c r="H9" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="E10" s="3">
-        <v>80400</v>
+        <v>79400</v>
       </c>
       <c r="F10" s="3">
-        <v>81000</v>
+        <v>79900</v>
       </c>
       <c r="G10" s="3">
-        <v>30600</v>
+        <v>30200</v>
       </c>
       <c r="H10" s="3">
         <v>-800</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E12" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="F12" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="G12" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="H12" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="E14" s="3">
-        <v>31200</v>
+        <v>30800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>93800</v>
+        <v>92500</v>
       </c>
       <c r="E17" s="3">
-        <v>345400</v>
+        <v>340900</v>
       </c>
       <c r="F17" s="3">
-        <v>248400</v>
+        <v>245200</v>
       </c>
       <c r="G17" s="3">
-        <v>97400</v>
+        <v>96100</v>
       </c>
       <c r="H17" s="3">
-        <v>39900</v>
+        <v>39400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-34800</v>
+        <v>-34300</v>
       </c>
       <c r="E18" s="3">
-        <v>-144800</v>
+        <v>-143000</v>
       </c>
       <c r="F18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G18" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="H18" s="3">
-        <v>-31400</v>
+        <v>-31000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="E20" s="3">
         <v>3700</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-36200</v>
+        <v>-35700</v>
       </c>
       <c r="E21" s="3">
-        <v>-139200</v>
+        <v>-137400</v>
       </c>
       <c r="F21" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G21" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="H21" s="3">
-        <v>-30800</v>
+        <v>-30400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38500</v>
+        <v>-38000</v>
       </c>
       <c r="E23" s="3">
-        <v>-141100</v>
+        <v>-139300</v>
       </c>
       <c r="F23" s="3">
         <v>1200</v>
       </c>
       <c r="G23" s="3">
-        <v>-10400</v>
+        <v>-10200</v>
       </c>
       <c r="H23" s="3">
-        <v>-31300</v>
+        <v>-30800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46200</v>
+        <v>-45600</v>
       </c>
       <c r="E26" s="3">
-        <v>-141400</v>
+        <v>-139600</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
       </c>
       <c r="G26" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="H26" s="3">
-        <v>-31300</v>
+        <v>-30900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-45900</v>
+        <v>-45300</v>
       </c>
       <c r="E27" s="3">
-        <v>-141300</v>
+        <v>-139500</v>
       </c>
       <c r="F27" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="G27" s="3">
-        <v>-20300</v>
+        <v>-20100</v>
       </c>
       <c r="H27" s="3">
-        <v>-37800</v>
+        <v>-37300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E32" s="3">
         <v>-3700</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-45900</v>
+        <v>-45300</v>
       </c>
       <c r="E33" s="3">
-        <v>-141300</v>
+        <v>-139500</v>
       </c>
       <c r="F33" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="G33" s="3">
-        <v>-20300</v>
+        <v>-20100</v>
       </c>
       <c r="H33" s="3">
-        <v>-37800</v>
+        <v>-37300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-45900</v>
+        <v>-45300</v>
       </c>
       <c r="E35" s="3">
-        <v>-141300</v>
+        <v>-139500</v>
       </c>
       <c r="F35" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="G35" s="3">
-        <v>-20300</v>
+        <v>-20100</v>
       </c>
       <c r="H35" s="3">
-        <v>-37800</v>
+        <v>-37300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58800</v>
+        <v>58100</v>
       </c>
       <c r="E41" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F41" s="3">
-        <v>71400</v>
+        <v>70400</v>
       </c>
       <c r="G41" s="3">
-        <v>57900</v>
+        <v>57100</v>
       </c>
       <c r="H41" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1689,7 +1689,7 @@
         <v>2900</v>
       </c>
       <c r="E42" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="F42" s="3">
         <v>2400</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="E43" s="3">
-        <v>79300</v>
+        <v>78300</v>
       </c>
       <c r="F43" s="3">
-        <v>223800</v>
+        <v>220900</v>
       </c>
       <c r="G43" s="3">
-        <v>279700</v>
+        <v>276100</v>
       </c>
       <c r="H43" s="3">
-        <v>74600</v>
+        <v>73600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="E45" s="3">
-        <v>71300</v>
+        <v>70400</v>
       </c>
       <c r="F45" s="3">
-        <v>49000</v>
+        <v>48300</v>
       </c>
       <c r="G45" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="H45" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>112500</v>
+        <v>111000</v>
       </c>
       <c r="E46" s="3">
-        <v>180900</v>
+        <v>178600</v>
       </c>
       <c r="F46" s="3">
-        <v>344800</v>
+        <v>340300</v>
       </c>
       <c r="G46" s="3">
-        <v>347300</v>
+        <v>342800</v>
       </c>
       <c r="H46" s="3">
-        <v>81500</v>
+        <v>80500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="E47" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="F47" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="G47" s="3">
-        <v>28900</v>
+        <v>28500</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="E48" s="3">
         <v>2200</v>
@@ -1896,7 +1896,7 @@
         <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1920,16 +1920,16 @@
         <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="F49" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G49" s="3">
         <v>5100</v>
       </c>
       <c r="H49" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2019,10 +2019,10 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="F52" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>152700</v>
+        <v>150700</v>
       </c>
       <c r="E54" s="3">
-        <v>243500</v>
+        <v>240300</v>
       </c>
       <c r="F54" s="3">
-        <v>369400</v>
+        <v>364600</v>
       </c>
       <c r="G54" s="3">
-        <v>382300</v>
+        <v>377400</v>
       </c>
       <c r="H54" s="3">
-        <v>87700</v>
+        <v>86500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2148,13 +2148,13 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F57" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G57" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="E58" s="3">
-        <v>109400</v>
+        <v>108000</v>
       </c>
       <c r="F58" s="3">
-        <v>142700</v>
+        <v>140900</v>
       </c>
       <c r="G58" s="3">
-        <v>228300</v>
+        <v>225300</v>
       </c>
       <c r="H58" s="3">
-        <v>59600</v>
+        <v>58900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59000</v>
+        <v>58300</v>
       </c>
       <c r="E59" s="3">
-        <v>50300</v>
+        <v>49700</v>
       </c>
       <c r="F59" s="3">
-        <v>53300</v>
+        <v>52600</v>
       </c>
       <c r="G59" s="3">
-        <v>80700</v>
+        <v>79600</v>
       </c>
       <c r="H59" s="3">
-        <v>28400</v>
+        <v>28000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>81400</v>
+        <v>80300</v>
       </c>
       <c r="E60" s="3">
-        <v>168700</v>
+        <v>166500</v>
       </c>
       <c r="F60" s="3">
-        <v>199800</v>
+        <v>197200</v>
       </c>
       <c r="G60" s="3">
-        <v>315700</v>
+        <v>311600</v>
       </c>
       <c r="H60" s="3">
-        <v>89100</v>
+        <v>87900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62400</v>
+        <v>61600</v>
       </c>
       <c r="E61" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="F61" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G61" s="3">
-        <v>73300</v>
+        <v>72300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>2900</v>
       </c>
       <c r="F62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G62" s="3">
         <v>3100</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171200</v>
+        <v>169000</v>
       </c>
       <c r="E66" s="3">
-        <v>213900</v>
+        <v>211100</v>
       </c>
       <c r="F66" s="3">
-        <v>204500</v>
+        <v>201800</v>
       </c>
       <c r="G66" s="3">
-        <v>392100</v>
+        <v>387000</v>
       </c>
       <c r="H66" s="3">
-        <v>89100</v>
+        <v>87900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-331500</v>
+        <v>-327200</v>
       </c>
       <c r="E72" s="3">
-        <v>-285700</v>
+        <v>-281900</v>
       </c>
       <c r="F72" s="3">
-        <v>-135900</v>
+        <v>-134100</v>
       </c>
       <c r="G72" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="H72" s="3">
         <v>-1400</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="E76" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="F76" s="3">
-        <v>164900</v>
+        <v>162800</v>
       </c>
       <c r="G76" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="H76" s="3">
         <v>-1400</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-45900</v>
+        <v>-45300</v>
       </c>
       <c r="E81" s="3">
-        <v>-141300</v>
+        <v>-139500</v>
       </c>
       <c r="F81" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="G81" s="3">
-        <v>-20300</v>
+        <v>-20100</v>
       </c>
       <c r="H81" s="3">
-        <v>-37800</v>
+        <v>-37300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E89" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="F89" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="G89" s="3">
-        <v>30800</v>
+        <v>30400</v>
       </c>
       <c r="H89" s="3">
-        <v>-19200</v>
+        <v>-18900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,10 +3152,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>30100</v>
+        <v>29700</v>
       </c>
       <c r="E94" s="3">
-        <v>-84000</v>
+        <v>-82900</v>
       </c>
       <c r="F94" s="3">
-        <v>39100</v>
+        <v>38600</v>
       </c>
       <c r="G94" s="3">
-        <v>-225400</v>
+        <v>-222500</v>
       </c>
       <c r="H94" s="3">
-        <v>-16900</v>
+        <v>-16700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-44700</v>
+        <v>-44100</v>
       </c>
       <c r="E100" s="3">
-        <v>35000</v>
+        <v>34500</v>
       </c>
       <c r="F100" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="G100" s="3">
-        <v>249000</v>
+        <v>245700</v>
       </c>
       <c r="H100" s="3">
-        <v>40000</v>
+        <v>39500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
         <v>1600</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="E102" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="F102" s="3">
-        <v>52100</v>
+        <v>51500</v>
       </c>
       <c r="G102" s="3">
-        <v>54400</v>
+        <v>53700</v>
       </c>
       <c r="H102" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="E8" s="3">
-        <v>197900</v>
+        <v>201200</v>
       </c>
       <c r="F8" s="3">
-        <v>246900</v>
+        <v>251100</v>
       </c>
       <c r="G8" s="3">
-        <v>87600</v>
+        <v>89000</v>
       </c>
       <c r="H8" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44000</v>
+        <v>44700</v>
       </c>
       <c r="E9" s="3">
-        <v>118500</v>
+        <v>120500</v>
       </c>
       <c r="F9" s="3">
-        <v>167000</v>
+        <v>169800</v>
       </c>
       <c r="G9" s="3">
-        <v>57300</v>
+        <v>58300</v>
       </c>
       <c r="H9" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="E10" s="3">
-        <v>79400</v>
+        <v>80700</v>
       </c>
       <c r="F10" s="3">
-        <v>79900</v>
+        <v>81200</v>
       </c>
       <c r="G10" s="3">
-        <v>30200</v>
+        <v>30700</v>
       </c>
       <c r="H10" s="3">
         <v>-800</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E12" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="F12" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="G12" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="H12" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="E14" s="3">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>92500</v>
+        <v>94100</v>
       </c>
       <c r="E17" s="3">
-        <v>340900</v>
+        <v>346600</v>
       </c>
       <c r="F17" s="3">
-        <v>245200</v>
+        <v>249300</v>
       </c>
       <c r="G17" s="3">
-        <v>96100</v>
+        <v>97700</v>
       </c>
       <c r="H17" s="3">
-        <v>39400</v>
+        <v>40100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-34300</v>
+        <v>-34900</v>
       </c>
       <c r="E18" s="3">
-        <v>-143000</v>
+        <v>-145400</v>
       </c>
       <c r="F18" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G18" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H18" s="3">
-        <v>-31000</v>
+        <v>-31500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="E20" s="3">
         <v>3700</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-35700</v>
+        <v>-36300</v>
       </c>
       <c r="E21" s="3">
-        <v>-137400</v>
+        <v>-139700</v>
       </c>
       <c r="F21" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="H21" s="3">
-        <v>-30400</v>
+        <v>-30900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38000</v>
+        <v>-38700</v>
       </c>
       <c r="E23" s="3">
-        <v>-139300</v>
+        <v>-141600</v>
       </c>
       <c r="F23" s="3">
         <v>1200</v>
       </c>
       <c r="G23" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="H23" s="3">
-        <v>-30800</v>
+        <v>-31400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-45600</v>
+        <v>-46400</v>
       </c>
       <c r="E26" s="3">
-        <v>-139600</v>
+        <v>-141900</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
       </c>
       <c r="G26" s="3">
-        <v>-13100</v>
+        <v>-13300</v>
       </c>
       <c r="H26" s="3">
-        <v>-30900</v>
+        <v>-31400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-45300</v>
+        <v>-46000</v>
       </c>
       <c r="E27" s="3">
-        <v>-139500</v>
+        <v>-141800</v>
       </c>
       <c r="F27" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="G27" s="3">
-        <v>-20100</v>
+        <v>-20400</v>
       </c>
       <c r="H27" s="3">
-        <v>-37300</v>
+        <v>-37900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E32" s="3">
         <v>-3700</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-45300</v>
+        <v>-46000</v>
       </c>
       <c r="E33" s="3">
-        <v>-139500</v>
+        <v>-141800</v>
       </c>
       <c r="F33" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="G33" s="3">
-        <v>-20100</v>
+        <v>-20400</v>
       </c>
       <c r="H33" s="3">
-        <v>-37300</v>
+        <v>-37900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-45300</v>
+        <v>-46000</v>
       </c>
       <c r="E35" s="3">
-        <v>-139500</v>
+        <v>-141800</v>
       </c>
       <c r="F35" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="G35" s="3">
-        <v>-20100</v>
+        <v>-20400</v>
       </c>
       <c r="H35" s="3">
-        <v>-37300</v>
+        <v>-37900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>71600</v>
+      </c>
+      <c r="G41" s="3">
         <v>58100</v>
       </c>
-      <c r="E41" s="3">
-        <v>15800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>70400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>57100</v>
-      </c>
       <c r="H41" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1689,7 +1689,7 @@
         <v>2900</v>
       </c>
       <c r="E42" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="F42" s="3">
         <v>2400</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="E43" s="3">
-        <v>78300</v>
+        <v>79600</v>
       </c>
       <c r="F43" s="3">
-        <v>220900</v>
+        <v>224600</v>
       </c>
       <c r="G43" s="3">
-        <v>276100</v>
+        <v>280700</v>
       </c>
       <c r="H43" s="3">
-        <v>73600</v>
+        <v>74900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="E45" s="3">
-        <v>70400</v>
+        <v>71600</v>
       </c>
       <c r="F45" s="3">
-        <v>48300</v>
+        <v>49100</v>
       </c>
       <c r="G45" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>111000</v>
+        <v>112900</v>
       </c>
       <c r="E46" s="3">
-        <v>178600</v>
+        <v>181600</v>
       </c>
       <c r="F46" s="3">
-        <v>340300</v>
+        <v>346000</v>
       </c>
       <c r="G46" s="3">
-        <v>342800</v>
+        <v>348500</v>
       </c>
       <c r="H46" s="3">
-        <v>80500</v>
+        <v>81800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19200</v>
+        <v>19500</v>
       </c>
       <c r="E47" s="3">
-        <v>21800</v>
+        <v>22100</v>
       </c>
       <c r="F47" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="G47" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="E48" s="3">
         <v>2200</v>
@@ -1896,7 +1896,7 @@
         <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1920,16 +1920,16 @@
         <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="F49" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G49" s="3">
         <v>5100</v>
       </c>
       <c r="H49" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2019,10 +2019,10 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>24700</v>
+        <v>25100</v>
       </c>
       <c r="F52" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>150700</v>
+        <v>153200</v>
       </c>
       <c r="E54" s="3">
-        <v>240300</v>
+        <v>244300</v>
       </c>
       <c r="F54" s="3">
-        <v>364600</v>
+        <v>370700</v>
       </c>
       <c r="G54" s="3">
-        <v>377400</v>
+        <v>383700</v>
       </c>
       <c r="H54" s="3">
-        <v>86500</v>
+        <v>88000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2148,13 +2148,13 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G57" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="E58" s="3">
-        <v>108000</v>
+        <v>109800</v>
       </c>
       <c r="F58" s="3">
-        <v>140900</v>
+        <v>143200</v>
       </c>
       <c r="G58" s="3">
-        <v>225300</v>
+        <v>229100</v>
       </c>
       <c r="H58" s="3">
-        <v>58900</v>
+        <v>59800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58300</v>
+        <v>59200</v>
       </c>
       <c r="E59" s="3">
-        <v>49700</v>
+        <v>50500</v>
       </c>
       <c r="F59" s="3">
-        <v>52600</v>
+        <v>53500</v>
       </c>
       <c r="G59" s="3">
-        <v>79600</v>
+        <v>81000</v>
       </c>
       <c r="H59" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>80300</v>
+        <v>81700</v>
       </c>
       <c r="E60" s="3">
-        <v>166500</v>
+        <v>169300</v>
       </c>
       <c r="F60" s="3">
-        <v>197200</v>
+        <v>200500</v>
       </c>
       <c r="G60" s="3">
-        <v>311600</v>
+        <v>316800</v>
       </c>
       <c r="H60" s="3">
-        <v>87900</v>
+        <v>89400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61600</v>
+        <v>62600</v>
       </c>
       <c r="E61" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="F61" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G61" s="3">
-        <v>72300</v>
+        <v>73500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>2900</v>
       </c>
       <c r="F62" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G62" s="3">
         <v>3100</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>169000</v>
+        <v>171800</v>
       </c>
       <c r="E66" s="3">
-        <v>211100</v>
+        <v>214700</v>
       </c>
       <c r="F66" s="3">
-        <v>201800</v>
+        <v>205200</v>
       </c>
       <c r="G66" s="3">
-        <v>387000</v>
+        <v>393400</v>
       </c>
       <c r="H66" s="3">
-        <v>87900</v>
+        <v>89400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-327200</v>
+        <v>-332700</v>
       </c>
       <c r="E72" s="3">
-        <v>-281900</v>
+        <v>-286700</v>
       </c>
       <c r="F72" s="3">
-        <v>-134100</v>
+        <v>-136400</v>
       </c>
       <c r="G72" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="H72" s="3">
         <v>-1400</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18300</v>
+        <v>-18600</v>
       </c>
       <c r="E76" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="F76" s="3">
-        <v>162800</v>
+        <v>165500</v>
       </c>
       <c r="G76" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="H76" s="3">
         <v>-1400</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-45300</v>
+        <v>-46000</v>
       </c>
       <c r="E81" s="3">
-        <v>-139500</v>
+        <v>-141800</v>
       </c>
       <c r="F81" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="G81" s="3">
-        <v>-20100</v>
+        <v>-20400</v>
       </c>
       <c r="H81" s="3">
-        <v>-37300</v>
+        <v>-37900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E89" s="3">
-        <v>27000</v>
+        <v>27400</v>
       </c>
       <c r="F89" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="G89" s="3">
-        <v>30400</v>
+        <v>30900</v>
       </c>
       <c r="H89" s="3">
-        <v>-18900</v>
+        <v>-19300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15100</v>
+        <v>-15300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>29700</v>
+        <v>30200</v>
       </c>
       <c r="E94" s="3">
-        <v>-82900</v>
+        <v>-84300</v>
       </c>
       <c r="F94" s="3">
-        <v>38600</v>
+        <v>39200</v>
       </c>
       <c r="G94" s="3">
-        <v>-222500</v>
+        <v>-226200</v>
       </c>
       <c r="H94" s="3">
-        <v>-16700</v>
+        <v>-16900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-44100</v>
+        <v>-44900</v>
       </c>
       <c r="E100" s="3">
-        <v>34500</v>
+        <v>35100</v>
       </c>
       <c r="F100" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="G100" s="3">
-        <v>245700</v>
+        <v>249900</v>
       </c>
       <c r="H100" s="3">
-        <v>39500</v>
+        <v>40200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
         <v>1600</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="E102" s="3">
-        <v>-19900</v>
+        <v>-20200</v>
       </c>
       <c r="F102" s="3">
-        <v>51500</v>
+        <v>52300</v>
       </c>
       <c r="G102" s="3">
-        <v>53700</v>
+        <v>54600</v>
       </c>
       <c r="H102" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>59200</v>
+        <v>59700</v>
       </c>
       <c r="E8" s="3">
-        <v>201200</v>
+        <v>202800</v>
       </c>
       <c r="F8" s="3">
-        <v>251100</v>
+        <v>253000</v>
       </c>
       <c r="G8" s="3">
-        <v>89000</v>
+        <v>89700</v>
       </c>
       <c r="H8" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="E9" s="3">
-        <v>120500</v>
+        <v>121400</v>
       </c>
       <c r="F9" s="3">
-        <v>169800</v>
+        <v>171100</v>
       </c>
       <c r="G9" s="3">
-        <v>58300</v>
+        <v>58800</v>
       </c>
       <c r="H9" s="3">
         <v>9400</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="E10" s="3">
-        <v>80700</v>
+        <v>81300</v>
       </c>
       <c r="F10" s="3">
-        <v>81200</v>
+        <v>81900</v>
       </c>
       <c r="G10" s="3">
-        <v>30700</v>
+        <v>31000</v>
       </c>
       <c r="H10" s="3">
         <v>-800</v>
@@ -835,16 +835,16 @@
         <v>5900</v>
       </c>
       <c r="E12" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="F12" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H12" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13300</v>
+        <v>13500</v>
       </c>
       <c r="E14" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>94100</v>
+        <v>94800</v>
       </c>
       <c r="E17" s="3">
-        <v>346600</v>
+        <v>349200</v>
       </c>
       <c r="F17" s="3">
-        <v>249300</v>
+        <v>251200</v>
       </c>
       <c r="G17" s="3">
-        <v>97700</v>
+        <v>98500</v>
       </c>
       <c r="H17" s="3">
-        <v>40100</v>
+        <v>40400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-34900</v>
+        <v>-35100</v>
       </c>
       <c r="E18" s="3">
-        <v>-145400</v>
+        <v>-146500</v>
       </c>
       <c r="F18" s="3">
         <v>1800</v>
       </c>
       <c r="G18" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="H18" s="3">
-        <v>-31500</v>
+        <v>-31700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1060,7 +1060,7 @@
         <v>-3800</v>
       </c>
       <c r="E20" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-36300</v>
+        <v>-36500</v>
       </c>
       <c r="E21" s="3">
-        <v>-139700</v>
+        <v>-140800</v>
       </c>
       <c r="F21" s="3">
         <v>2000</v>
       </c>
       <c r="G21" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="H21" s="3">
-        <v>-30900</v>
+        <v>-31100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38700</v>
+        <v>-39000</v>
       </c>
       <c r="E23" s="3">
-        <v>-141600</v>
+        <v>-142700</v>
       </c>
       <c r="F23" s="3">
         <v>1200</v>
       </c>
       <c r="G23" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="H23" s="3">
-        <v>-31400</v>
+        <v>-31600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46400</v>
+        <v>-46700</v>
       </c>
       <c r="E26" s="3">
-        <v>-141900</v>
+        <v>-143000</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
       </c>
       <c r="G26" s="3">
-        <v>-13300</v>
+        <v>-13400</v>
       </c>
       <c r="H26" s="3">
-        <v>-31400</v>
+        <v>-31600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46000</v>
+        <v>-46400</v>
       </c>
       <c r="E27" s="3">
-        <v>-141800</v>
+        <v>-142900</v>
       </c>
       <c r="F27" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="G27" s="3">
-        <v>-20400</v>
+        <v>-20600</v>
       </c>
       <c r="H27" s="3">
-        <v>-37900</v>
+        <v>-38200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1456,7 +1456,7 @@
         <v>3800</v>
       </c>
       <c r="E32" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46000</v>
+        <v>-46400</v>
       </c>
       <c r="E33" s="3">
-        <v>-141800</v>
+        <v>-142900</v>
       </c>
       <c r="F33" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="G33" s="3">
-        <v>-20400</v>
+        <v>-20600</v>
       </c>
       <c r="H33" s="3">
-        <v>-37900</v>
+        <v>-38200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46000</v>
+        <v>-46400</v>
       </c>
       <c r="E35" s="3">
-        <v>-141800</v>
+        <v>-142900</v>
       </c>
       <c r="F35" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="G35" s="3">
-        <v>-20400</v>
+        <v>-20600</v>
       </c>
       <c r="H35" s="3">
-        <v>-37900</v>
+        <v>-38200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59000</v>
+        <v>59500</v>
       </c>
       <c r="E41" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="F41" s="3">
-        <v>71600</v>
+        <v>72200</v>
       </c>
       <c r="G41" s="3">
-        <v>58100</v>
+        <v>58500</v>
       </c>
       <c r="H41" s="3">
         <v>4300</v>
@@ -1689,10 +1689,10 @@
         <v>2900</v>
       </c>
       <c r="E42" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="F42" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G42" s="3">
         <v>300</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19900</v>
+        <v>20100</v>
       </c>
       <c r="E43" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="F43" s="3">
-        <v>224600</v>
+        <v>226300</v>
       </c>
       <c r="G43" s="3">
-        <v>280700</v>
+        <v>282900</v>
       </c>
       <c r="H43" s="3">
-        <v>74900</v>
+        <v>75400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31000</v>
+        <v>31200</v>
       </c>
       <c r="E45" s="3">
-        <v>71600</v>
+        <v>72100</v>
       </c>
       <c r="F45" s="3">
-        <v>49100</v>
+        <v>49500</v>
       </c>
       <c r="G45" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="H45" s="3">
         <v>2700</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>112900</v>
+        <v>113700</v>
       </c>
       <c r="E46" s="3">
-        <v>181600</v>
+        <v>183000</v>
       </c>
       <c r="F46" s="3">
-        <v>346000</v>
+        <v>348700</v>
       </c>
       <c r="G46" s="3">
-        <v>348500</v>
+        <v>351200</v>
       </c>
       <c r="H46" s="3">
-        <v>81800</v>
+        <v>82500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19500</v>
+        <v>19700</v>
       </c>
       <c r="E47" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="F47" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="G47" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="E48" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
@@ -1920,13 +1920,13 @@
         <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="F49" s="3">
         <v>4900</v>
       </c>
       <c r="G49" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H49" s="3">
         <v>5400</v>
@@ -2019,7 +2019,7 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="F52" s="3">
         <v>5800</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>153200</v>
+        <v>154400</v>
       </c>
       <c r="E54" s="3">
-        <v>244300</v>
+        <v>246200</v>
       </c>
       <c r="F54" s="3">
-        <v>370700</v>
+        <v>373600</v>
       </c>
       <c r="G54" s="3">
-        <v>383700</v>
+        <v>386600</v>
       </c>
       <c r="H54" s="3">
-        <v>88000</v>
+        <v>88700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2148,13 +2148,13 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F57" s="3">
         <v>6100</v>
       </c>
       <c r="G57" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="E58" s="3">
-        <v>109800</v>
+        <v>110600</v>
       </c>
       <c r="F58" s="3">
-        <v>143200</v>
+        <v>144300</v>
       </c>
       <c r="G58" s="3">
-        <v>229100</v>
+        <v>230800</v>
       </c>
       <c r="H58" s="3">
-        <v>59800</v>
+        <v>60300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59200</v>
+        <v>59700</v>
       </c>
       <c r="E59" s="3">
-        <v>50500</v>
+        <v>50900</v>
       </c>
       <c r="F59" s="3">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="G59" s="3">
-        <v>81000</v>
+        <v>81600</v>
       </c>
       <c r="H59" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>81700</v>
+        <v>82300</v>
       </c>
       <c r="E60" s="3">
-        <v>169300</v>
+        <v>170600</v>
       </c>
       <c r="F60" s="3">
-        <v>200500</v>
+        <v>202000</v>
       </c>
       <c r="G60" s="3">
-        <v>316800</v>
+        <v>319200</v>
       </c>
       <c r="H60" s="3">
-        <v>89400</v>
+        <v>90100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="E61" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="F61" s="3">
         <v>3400</v>
       </c>
       <c r="G61" s="3">
-        <v>73500</v>
+        <v>74100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>1400</v>
       </c>
       <c r="E62" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171800</v>
+        <v>173100</v>
       </c>
       <c r="E66" s="3">
-        <v>214700</v>
+        <v>216300</v>
       </c>
       <c r="F66" s="3">
-        <v>205200</v>
+        <v>206800</v>
       </c>
       <c r="G66" s="3">
-        <v>393400</v>
+        <v>396400</v>
       </c>
       <c r="H66" s="3">
-        <v>89400</v>
+        <v>90100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-332700</v>
+        <v>-335200</v>
       </c>
       <c r="E72" s="3">
-        <v>-286700</v>
+        <v>-288900</v>
       </c>
       <c r="F72" s="3">
-        <v>-136400</v>
+        <v>-137400</v>
       </c>
       <c r="G72" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="H72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18600</v>
+        <v>-18800</v>
       </c>
       <c r="E76" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="F76" s="3">
-        <v>165500</v>
+        <v>166800</v>
       </c>
       <c r="G76" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="H76" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46000</v>
+        <v>-46400</v>
       </c>
       <c r="E81" s="3">
-        <v>-141800</v>
+        <v>-142900</v>
       </c>
       <c r="F81" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="G81" s="3">
-        <v>-20400</v>
+        <v>-20600</v>
       </c>
       <c r="H81" s="3">
-        <v>-37900</v>
+        <v>-38200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="E89" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="F89" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="G89" s="3">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="H89" s="3">
-        <v>-19300</v>
+        <v>-19400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,7 +3152,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15300</v>
+        <v>-15400</v>
       </c>
       <c r="E91" s="3">
         <v>-1600</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="E94" s="3">
-        <v>-84300</v>
+        <v>-85000</v>
       </c>
       <c r="F94" s="3">
-        <v>39200</v>
+        <v>39500</v>
       </c>
       <c r="G94" s="3">
-        <v>-226200</v>
+        <v>-227900</v>
       </c>
       <c r="H94" s="3">
-        <v>-16900</v>
+        <v>-17100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-44900</v>
+        <v>-45200</v>
       </c>
       <c r="E100" s="3">
-        <v>35100</v>
+        <v>35400</v>
       </c>
       <c r="F100" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="G100" s="3">
-        <v>249900</v>
+        <v>251800</v>
       </c>
       <c r="H100" s="3">
-        <v>40200</v>
+        <v>40500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3470,7 +3470,7 @@
         <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         <v>-9200</v>
       </c>
       <c r="E102" s="3">
-        <v>-20200</v>
+        <v>-20400</v>
       </c>
       <c r="F102" s="3">
-        <v>52300</v>
+        <v>52700</v>
       </c>
       <c r="G102" s="3">
-        <v>54600</v>
+        <v>55000</v>
       </c>
       <c r="H102" s="3">
         <v>4000</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>PT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>59700</v>
+        <v>25500</v>
       </c>
       <c r="E8" s="3">
-        <v>202800</v>
+        <v>55700</v>
       </c>
       <c r="F8" s="3">
-        <v>253000</v>
+        <v>189400</v>
       </c>
       <c r="G8" s="3">
-        <v>89700</v>
+        <v>236300</v>
       </c>
       <c r="H8" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>83800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45100</v>
+        <v>13200</v>
       </c>
       <c r="E9" s="3">
-        <v>121400</v>
+        <v>42100</v>
       </c>
       <c r="F9" s="3">
-        <v>171100</v>
+        <v>113400</v>
       </c>
       <c r="G9" s="3">
-        <v>58800</v>
+        <v>159800</v>
       </c>
       <c r="H9" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>54900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14600</v>
+        <v>12300</v>
       </c>
       <c r="E10" s="3">
-        <v>81300</v>
+        <v>13600</v>
       </c>
       <c r="F10" s="3">
-        <v>81900</v>
+        <v>76000</v>
       </c>
       <c r="G10" s="3">
-        <v>31000</v>
+        <v>76500</v>
       </c>
       <c r="H10" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>28900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,28 +838,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="E12" s="3">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="F12" s="3">
-        <v>15000</v>
+        <v>11700</v>
       </c>
       <c r="G12" s="3">
-        <v>11300</v>
+        <v>14000</v>
       </c>
       <c r="H12" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>10500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,29 +907,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13500</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
-        <v>31600</v>
+        <v>12600</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>29500</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>94800</v>
+        <v>36900</v>
       </c>
       <c r="E17" s="3">
-        <v>349200</v>
+        <v>88600</v>
       </c>
       <c r="F17" s="3">
-        <v>251200</v>
+        <v>326200</v>
       </c>
       <c r="G17" s="3">
-        <v>98500</v>
+        <v>234700</v>
       </c>
       <c r="H17" s="3">
-        <v>40400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>92000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>37700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-35100</v>
+        <v>-11300</v>
       </c>
       <c r="E18" s="3">
-        <v>-146500</v>
+        <v>-32800</v>
       </c>
       <c r="F18" s="3">
-        <v>1800</v>
+        <v>-136800</v>
       </c>
       <c r="G18" s="3">
-        <v>-8800</v>
+        <v>1700</v>
       </c>
       <c r="H18" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-8200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-29600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,29 +1083,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3800</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
-        <v>3800</v>
+        <v>-3600</v>
       </c>
       <c r="F20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-36500</v>
+        <v>-8400</v>
       </c>
       <c r="E21" s="3">
-        <v>-140800</v>
+        <v>-34100</v>
       </c>
       <c r="F21" s="3">
-        <v>2000</v>
+        <v>-131500</v>
       </c>
       <c r="G21" s="3">
-        <v>-9800</v>
+        <v>1900</v>
       </c>
       <c r="H21" s="3">
-        <v>-31100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-9200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-29100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,32 +1152,35 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1149,29 +1188,32 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39000</v>
+        <v>-15000</v>
       </c>
       <c r="E23" s="3">
-        <v>-142700</v>
+        <v>-36400</v>
       </c>
       <c r="F23" s="3">
+        <v>-133300</v>
+      </c>
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-10500</v>
-      </c>
       <c r="H23" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-29500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,29 +1224,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7800</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>900</v>
-      </c>
       <c r="G24" s="3">
-        <v>2900</v>
+        <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46700</v>
+        <v>-16000</v>
       </c>
       <c r="E26" s="3">
-        <v>-143000</v>
+        <v>-43600</v>
       </c>
       <c r="F26" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-13400</v>
-      </c>
       <c r="H26" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-12500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-29500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46400</v>
+        <v>-15000</v>
       </c>
       <c r="E27" s="3">
-        <v>-142900</v>
+        <v>-43300</v>
       </c>
       <c r="F27" s="3">
-        <v>-11800</v>
+        <v>-133500</v>
       </c>
       <c r="G27" s="3">
-        <v>-20600</v>
+        <v>-11000</v>
       </c>
       <c r="H27" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-19200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-35700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,30 +1512,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3800</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
-        <v>-3800</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>1700</v>
-      </c>
       <c r="H32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46400</v>
+        <v>-15000</v>
       </c>
       <c r="E33" s="3">
-        <v>-142900</v>
+        <v>-43300</v>
       </c>
       <c r="F33" s="3">
-        <v>-11800</v>
+        <v>-133500</v>
       </c>
       <c r="G33" s="3">
-        <v>-20600</v>
+        <v>-11000</v>
       </c>
       <c r="H33" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-19200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-35700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46400</v>
+        <v>-15000</v>
       </c>
       <c r="E35" s="3">
-        <v>-142900</v>
+        <v>-43300</v>
       </c>
       <c r="F35" s="3">
-        <v>-11800</v>
+        <v>-133500</v>
       </c>
       <c r="G35" s="3">
-        <v>-20600</v>
+        <v>-11000</v>
       </c>
       <c r="H35" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-19200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-35700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59500</v>
+        <v>32100</v>
       </c>
       <c r="E41" s="3">
-        <v>16200</v>
+        <v>55600</v>
       </c>
       <c r="F41" s="3">
-        <v>72200</v>
+        <v>15100</v>
       </c>
       <c r="G41" s="3">
-        <v>58500</v>
+        <v>67400</v>
       </c>
       <c r="H41" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>54700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,29 +1765,32 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="E42" s="3">
-        <v>14400</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>2500</v>
+        <v>13500</v>
       </c>
       <c r="G42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1712,29 +1801,32 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="E43" s="3">
-        <v>80200</v>
+        <v>18700</v>
       </c>
       <c r="F43" s="3">
-        <v>226300</v>
+        <v>74900</v>
       </c>
       <c r="G43" s="3">
-        <v>282900</v>
+        <v>211400</v>
       </c>
       <c r="H43" s="3">
-        <v>75400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>264200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>70500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,29 +1873,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31200</v>
+        <v>22800</v>
       </c>
       <c r="E45" s="3">
-        <v>72100</v>
+        <v>29200</v>
       </c>
       <c r="F45" s="3">
-        <v>49500</v>
+        <v>67400</v>
       </c>
       <c r="G45" s="3">
-        <v>9500</v>
+        <v>46200</v>
       </c>
       <c r="H45" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>8900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>113700</v>
+        <v>77600</v>
       </c>
       <c r="E46" s="3">
-        <v>183000</v>
+        <v>106200</v>
       </c>
       <c r="F46" s="3">
-        <v>348700</v>
+        <v>170900</v>
       </c>
       <c r="G46" s="3">
-        <v>351200</v>
+        <v>325700</v>
       </c>
       <c r="H46" s="3">
-        <v>82500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>328100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>77000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19700</v>
+        <v>18200</v>
       </c>
       <c r="E47" s="3">
-        <v>22300</v>
+        <v>18400</v>
       </c>
       <c r="F47" s="3">
-        <v>12900</v>
+        <v>20800</v>
       </c>
       <c r="G47" s="3">
-        <v>29200</v>
+        <v>12100</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>27300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1877,29 +1981,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16900</v>
+        <v>14100</v>
       </c>
       <c r="E48" s="3">
-        <v>2300</v>
+        <v>15800</v>
       </c>
       <c r="F48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
-        <v>800</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1910,29 +2017,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
-        <v>13400</v>
+        <v>2500</v>
       </c>
       <c r="F49" s="3">
-        <v>4900</v>
+        <v>12500</v>
       </c>
       <c r="G49" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="H49" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,23 +2125,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>25300</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>23600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>154400</v>
+        <v>112200</v>
       </c>
       <c r="E54" s="3">
-        <v>246200</v>
+        <v>144200</v>
       </c>
       <c r="F54" s="3">
-        <v>373600</v>
+        <v>230000</v>
       </c>
       <c r="G54" s="3">
-        <v>386600</v>
+        <v>349000</v>
       </c>
       <c r="H54" s="3">
-        <v>88700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>361100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>82800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E57" s="3">
-        <v>9100</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="3">
-        <v>6100</v>
+        <v>8500</v>
       </c>
       <c r="G57" s="3">
-        <v>6800</v>
+        <v>5700</v>
       </c>
       <c r="H57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>6300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2171,29 +2301,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>110600</v>
+        <v>19600</v>
       </c>
       <c r="F58" s="3">
-        <v>144300</v>
+        <v>103300</v>
       </c>
       <c r="G58" s="3">
-        <v>230800</v>
+        <v>134800</v>
       </c>
       <c r="H58" s="3">
-        <v>60300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>215600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>56300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2204,29 +2337,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59700</v>
+        <v>56500</v>
       </c>
       <c r="E59" s="3">
-        <v>50900</v>
+        <v>55800</v>
       </c>
       <c r="F59" s="3">
-        <v>53900</v>
+        <v>47500</v>
       </c>
       <c r="G59" s="3">
-        <v>81600</v>
+        <v>50400</v>
       </c>
       <c r="H59" s="3">
-        <v>28700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>76200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>26800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82300</v>
+        <v>59700</v>
       </c>
       <c r="E60" s="3">
-        <v>170600</v>
+        <v>76900</v>
       </c>
       <c r="F60" s="3">
-        <v>202000</v>
+        <v>159400</v>
       </c>
       <c r="G60" s="3">
-        <v>319200</v>
+        <v>188700</v>
       </c>
       <c r="H60" s="3">
-        <v>90100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>298200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>84200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>63100</v>
+        <v>58900</v>
       </c>
       <c r="E61" s="3">
-        <v>16000</v>
+        <v>58900</v>
       </c>
       <c r="F61" s="3">
-        <v>3400</v>
+        <v>15000</v>
       </c>
       <c r="G61" s="3">
-        <v>74100</v>
+        <v>3200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>69200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,29 +2445,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>3100</v>
       </c>
       <c r="E62" s="3">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="G62" s="3">
-        <v>3100</v>
+        <v>1300</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>173100</v>
+        <v>145300</v>
       </c>
       <c r="E66" s="3">
-        <v>216300</v>
+        <v>161700</v>
       </c>
       <c r="F66" s="3">
-        <v>206800</v>
+        <v>202000</v>
       </c>
       <c r="G66" s="3">
-        <v>396400</v>
+        <v>193200</v>
       </c>
       <c r="H66" s="3">
-        <v>90100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>370300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>84200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-335200</v>
+        <v>-328100</v>
       </c>
       <c r="E72" s="3">
-        <v>-288900</v>
+        <v>-313100</v>
       </c>
       <c r="F72" s="3">
-        <v>-137400</v>
+        <v>-269800</v>
       </c>
       <c r="G72" s="3">
-        <v>-9800</v>
+        <v>-128300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-9200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18800</v>
+        <v>-33100</v>
       </c>
       <c r="E76" s="3">
-        <v>29900</v>
+        <v>-17500</v>
       </c>
       <c r="F76" s="3">
-        <v>166800</v>
+        <v>27900</v>
       </c>
       <c r="G76" s="3">
-        <v>-9800</v>
+        <v>155800</v>
       </c>
       <c r="H76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-9200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46400</v>
+        <v>-15000</v>
       </c>
       <c r="E81" s="3">
-        <v>-142900</v>
+        <v>-43300</v>
       </c>
       <c r="F81" s="3">
-        <v>-11800</v>
+        <v>-133500</v>
       </c>
       <c r="G81" s="3">
-        <v>-20600</v>
+        <v>-11000</v>
       </c>
       <c r="H81" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-19200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-35700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="E83" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
-        <v>500</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9000</v>
+        <v>-4700</v>
       </c>
       <c r="E89" s="3">
-        <v>27600</v>
+        <v>8400</v>
       </c>
       <c r="F89" s="3">
-        <v>17100</v>
+        <v>25800</v>
       </c>
       <c r="G89" s="3">
-        <v>31100</v>
+        <v>16000</v>
       </c>
       <c r="H89" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>29100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-18100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,29 +3365,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15400</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-1600</v>
+        <v>-14400</v>
       </c>
       <c r="F91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-400</v>
-      </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>30400</v>
+        <v>-17600</v>
       </c>
       <c r="E94" s="3">
-        <v>-85000</v>
+        <v>28400</v>
       </c>
       <c r="F94" s="3">
-        <v>39500</v>
+        <v>-79400</v>
       </c>
       <c r="G94" s="3">
-        <v>-227900</v>
+        <v>36900</v>
       </c>
       <c r="H94" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-212900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-15900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-45200</v>
+        <v>-19500</v>
       </c>
       <c r="E100" s="3">
-        <v>35400</v>
+        <v>-42200</v>
       </c>
       <c r="F100" s="3">
-        <v>-7800</v>
+        <v>33100</v>
       </c>
       <c r="G100" s="3">
-        <v>251800</v>
+        <v>-7300</v>
       </c>
       <c r="H100" s="3">
-        <v>40500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>235200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>37800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,29 +3702,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>3900</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9200</v>
+        <v>-43800</v>
       </c>
       <c r="E102" s="3">
-        <v>-20400</v>
+        <v>-8600</v>
       </c>
       <c r="F102" s="3">
-        <v>52700</v>
+        <v>-19000</v>
       </c>
       <c r="G102" s="3">
-        <v>55000</v>
+        <v>49200</v>
       </c>
       <c r="H102" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>51400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>3800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="E8" s="3">
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="F8" s="3">
-        <v>189400</v>
+        <v>187700</v>
       </c>
       <c r="G8" s="3">
-        <v>236300</v>
+        <v>234200</v>
       </c>
       <c r="H8" s="3">
-        <v>83800</v>
+        <v>83100</v>
       </c>
       <c r="I8" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="E9" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="F9" s="3">
-        <v>113400</v>
+        <v>112400</v>
       </c>
       <c r="G9" s="3">
-        <v>159800</v>
+        <v>158400</v>
       </c>
       <c r="H9" s="3">
-        <v>54900</v>
+        <v>54400</v>
       </c>
       <c r="I9" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="E10" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="F10" s="3">
-        <v>76000</v>
+        <v>75300</v>
       </c>
       <c r="G10" s="3">
-        <v>76500</v>
+        <v>75800</v>
       </c>
       <c r="H10" s="3">
-        <v>28900</v>
+        <v>28700</v>
       </c>
       <c r="I10" s="3">
         <v>-700</v>
@@ -851,13 +851,13 @@
         <v>5500</v>
       </c>
       <c r="F12" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="G12" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="H12" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="I12" s="3">
         <v>7500</v>
@@ -920,10 +920,10 @@
         <v>1300</v>
       </c>
       <c r="E14" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="F14" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="E17" s="3">
-        <v>88600</v>
+        <v>87800</v>
       </c>
       <c r="F17" s="3">
-        <v>326200</v>
+        <v>323300</v>
       </c>
       <c r="G17" s="3">
-        <v>234700</v>
+        <v>232500</v>
       </c>
       <c r="H17" s="3">
-        <v>92000</v>
+        <v>91200</v>
       </c>
       <c r="I17" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="E18" s="3">
-        <v>-32800</v>
+        <v>-32500</v>
       </c>
       <c r="F18" s="3">
-        <v>-136800</v>
+        <v>-135600</v>
       </c>
       <c r="G18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H18" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="I18" s="3">
-        <v>-29600</v>
+        <v>-29400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1093,7 +1093,7 @@
         <v>1100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="F20" s="3">
         <v>3500</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="E21" s="3">
-        <v>-34100</v>
+        <v>-33800</v>
       </c>
       <c r="F21" s="3">
-        <v>-131500</v>
+        <v>-130300</v>
       </c>
       <c r="G21" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H21" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="I21" s="3">
-        <v>-29100</v>
+        <v>-28800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E23" s="3">
-        <v>-36400</v>
+        <v>-36100</v>
       </c>
       <c r="F23" s="3">
-        <v>-133300</v>
+        <v>-132100</v>
       </c>
       <c r="G23" s="3">
         <v>1200</v>
       </c>
       <c r="H23" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="I23" s="3">
-        <v>-29500</v>
+        <v>-29300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16000</v>
+        <v>-15900</v>
       </c>
       <c r="E26" s="3">
-        <v>-43600</v>
+        <v>-43200</v>
       </c>
       <c r="F26" s="3">
-        <v>-133600</v>
+        <v>-132400</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
       <c r="H26" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="I26" s="3">
-        <v>-29500</v>
+        <v>-29300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E27" s="3">
-        <v>-43300</v>
+        <v>-42900</v>
       </c>
       <c r="F27" s="3">
-        <v>-133500</v>
+        <v>-132300</v>
       </c>
       <c r="G27" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="H27" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="I27" s="3">
-        <v>-35700</v>
+        <v>-35400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1525,7 +1525,7 @@
         <v>-1100</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F32" s="3">
         <v>-3500</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E33" s="3">
-        <v>-43300</v>
+        <v>-42900</v>
       </c>
       <c r="F33" s="3">
-        <v>-133500</v>
+        <v>-132300</v>
       </c>
       <c r="G33" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="H33" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="I33" s="3">
-        <v>-35700</v>
+        <v>-35400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E35" s="3">
-        <v>-43300</v>
+        <v>-42900</v>
       </c>
       <c r="F35" s="3">
-        <v>-133500</v>
+        <v>-132300</v>
       </c>
       <c r="G35" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="H35" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="I35" s="3">
-        <v>-35700</v>
+        <v>-35400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="E41" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="F41" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="G41" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="H41" s="3">
-        <v>54700</v>
+        <v>54200</v>
       </c>
       <c r="I41" s="3">
         <v>4000</v>
@@ -1781,7 +1781,7 @@
         <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="G42" s="3">
         <v>2300</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="E43" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="F43" s="3">
-        <v>74900</v>
+        <v>74200</v>
       </c>
       <c r="G43" s="3">
-        <v>211400</v>
+        <v>209500</v>
       </c>
       <c r="H43" s="3">
-        <v>264200</v>
+        <v>261800</v>
       </c>
       <c r="I43" s="3">
-        <v>70500</v>
+        <v>69800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="E45" s="3">
-        <v>29200</v>
+        <v>28900</v>
       </c>
       <c r="F45" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="G45" s="3">
-        <v>46200</v>
+        <v>45800</v>
       </c>
       <c r="H45" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="I45" s="3">
         <v>2500</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>77600</v>
+        <v>76900</v>
       </c>
       <c r="E46" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="F46" s="3">
-        <v>170900</v>
+        <v>169400</v>
       </c>
       <c r="G46" s="3">
-        <v>325700</v>
+        <v>322800</v>
       </c>
       <c r="H46" s="3">
-        <v>328100</v>
+        <v>325100</v>
       </c>
       <c r="I46" s="3">
-        <v>77000</v>
+        <v>76300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E47" s="3">
         <v>18200</v>
       </c>
-      <c r="E47" s="3">
-        <v>18400</v>
-      </c>
       <c r="F47" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="G47" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="H47" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1991,16 +1991,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="E48" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="F48" s="3">
         <v>2100</v>
       </c>
       <c r="G48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F49" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="G49" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H49" s="3">
         <v>4800</v>
       </c>
       <c r="I49" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>23600</v>
+        <v>23400</v>
       </c>
       <c r="G52" s="3">
         <v>5400</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112200</v>
+        <v>111200</v>
       </c>
       <c r="E54" s="3">
-        <v>144200</v>
+        <v>142900</v>
       </c>
       <c r="F54" s="3">
-        <v>230000</v>
+        <v>227900</v>
       </c>
       <c r="G54" s="3">
-        <v>349000</v>
+        <v>345800</v>
       </c>
       <c r="H54" s="3">
-        <v>361100</v>
+        <v>357900</v>
       </c>
       <c r="I54" s="3">
-        <v>82800</v>
+        <v>82100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,13 +2275,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
       </c>
       <c r="F57" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="G57" s="3">
         <v>5700</v>
@@ -2314,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="F58" s="3">
-        <v>103300</v>
+        <v>102400</v>
       </c>
       <c r="G58" s="3">
-        <v>134800</v>
+        <v>133600</v>
       </c>
       <c r="H58" s="3">
-        <v>215600</v>
+        <v>213700</v>
       </c>
       <c r="I58" s="3">
-        <v>56300</v>
+        <v>55800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56500</v>
+        <v>56000</v>
       </c>
       <c r="E59" s="3">
-        <v>55800</v>
+        <v>55300</v>
       </c>
       <c r="F59" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="G59" s="3">
-        <v>50400</v>
+        <v>49900</v>
       </c>
       <c r="H59" s="3">
-        <v>76200</v>
+        <v>75500</v>
       </c>
       <c r="I59" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>59700</v>
+        <v>59100</v>
       </c>
       <c r="E60" s="3">
-        <v>76900</v>
+        <v>76200</v>
       </c>
       <c r="F60" s="3">
-        <v>159400</v>
+        <v>157900</v>
       </c>
       <c r="G60" s="3">
-        <v>188700</v>
+        <v>187000</v>
       </c>
       <c r="H60" s="3">
-        <v>298200</v>
+        <v>295500</v>
       </c>
       <c r="I60" s="3">
-        <v>84200</v>
+        <v>83400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58900</v>
+        <v>58400</v>
       </c>
       <c r="E61" s="3">
-        <v>58900</v>
+        <v>58400</v>
       </c>
       <c r="F61" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="G61" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H61" s="3">
-        <v>69200</v>
+        <v>68600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G62" s="3">
         <v>1300</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>145300</v>
+        <v>144000</v>
       </c>
       <c r="E66" s="3">
-        <v>161700</v>
+        <v>160300</v>
       </c>
       <c r="F66" s="3">
-        <v>202000</v>
+        <v>200200</v>
       </c>
       <c r="G66" s="3">
-        <v>193200</v>
+        <v>191400</v>
       </c>
       <c r="H66" s="3">
-        <v>370300</v>
+        <v>367000</v>
       </c>
       <c r="I66" s="3">
-        <v>84200</v>
+        <v>83400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-328100</v>
+        <v>-325200</v>
       </c>
       <c r="E72" s="3">
-        <v>-313100</v>
+        <v>-310300</v>
       </c>
       <c r="F72" s="3">
-        <v>-269800</v>
+        <v>-267400</v>
       </c>
       <c r="G72" s="3">
-        <v>-128300</v>
+        <v>-127200</v>
       </c>
       <c r="H72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-33100</v>
+        <v>-32800</v>
       </c>
       <c r="E76" s="3">
-        <v>-17500</v>
+        <v>-17400</v>
       </c>
       <c r="F76" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="G76" s="3">
-        <v>155800</v>
+        <v>154400</v>
       </c>
       <c r="H76" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="I76" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E81" s="3">
-        <v>-43300</v>
+        <v>-42900</v>
       </c>
       <c r="F81" s="3">
-        <v>-133500</v>
+        <v>-132300</v>
       </c>
       <c r="G81" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="H81" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="I81" s="3">
-        <v>-35700</v>
+        <v>-35400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3323,19 +3323,19 @@
         <v>-4700</v>
       </c>
       <c r="E89" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="F89" s="3">
-        <v>25800</v>
+        <v>25600</v>
       </c>
       <c r="G89" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="H89" s="3">
-        <v>29100</v>
+        <v>28800</v>
       </c>
       <c r="I89" s="3">
-        <v>-18100</v>
+        <v>-18000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="F91" s="3">
         <v>-1500</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17600</v>
+        <v>-17400</v>
       </c>
       <c r="E94" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="F94" s="3">
-        <v>-79400</v>
+        <v>-78700</v>
       </c>
       <c r="G94" s="3">
-        <v>36900</v>
+        <v>36600</v>
       </c>
       <c r="H94" s="3">
-        <v>-212900</v>
+        <v>-211000</v>
       </c>
       <c r="I94" s="3">
-        <v>-15900</v>
+        <v>-15800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19500</v>
+        <v>-19300</v>
       </c>
       <c r="E100" s="3">
-        <v>-42200</v>
+        <v>-41900</v>
       </c>
       <c r="F100" s="3">
-        <v>33100</v>
+        <v>32800</v>
       </c>
       <c r="G100" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="H100" s="3">
-        <v>235200</v>
+        <v>233100</v>
       </c>
       <c r="I100" s="3">
-        <v>37800</v>
+        <v>37500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3715,7 +3715,7 @@
         <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="F101" s="3">
         <v>1500</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43800</v>
+        <v>-43500</v>
       </c>
       <c r="E102" s="3">
         <v>-8600</v>
       </c>
       <c r="F102" s="3">
-        <v>-19000</v>
+        <v>-18900</v>
       </c>
       <c r="G102" s="3">
-        <v>49200</v>
+        <v>48800</v>
       </c>
       <c r="H102" s="3">
-        <v>51400</v>
+        <v>50900</v>
       </c>
       <c r="I102" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="E8" s="3">
-        <v>55200</v>
+        <v>52700</v>
       </c>
       <c r="F8" s="3">
-        <v>187700</v>
+        <v>178900</v>
       </c>
       <c r="G8" s="3">
-        <v>234200</v>
+        <v>223200</v>
       </c>
       <c r="H8" s="3">
-        <v>83100</v>
+        <v>79200</v>
       </c>
       <c r="I8" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="E9" s="3">
-        <v>41700</v>
+        <v>39800</v>
       </c>
       <c r="F9" s="3">
-        <v>112400</v>
+        <v>107100</v>
       </c>
       <c r="G9" s="3">
-        <v>158400</v>
+        <v>151000</v>
       </c>
       <c r="H9" s="3">
-        <v>54400</v>
+        <v>51800</v>
       </c>
       <c r="I9" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="E10" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="F10" s="3">
-        <v>75300</v>
+        <v>71800</v>
       </c>
       <c r="G10" s="3">
-        <v>75800</v>
+        <v>72200</v>
       </c>
       <c r="H10" s="3">
-        <v>28700</v>
+        <v>27300</v>
       </c>
       <c r="I10" s="3">
         <v>-700</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E12" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F12" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="G12" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="H12" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="F14" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="E17" s="3">
-        <v>87800</v>
+        <v>83700</v>
       </c>
       <c r="F17" s="3">
-        <v>323300</v>
+        <v>308100</v>
       </c>
       <c r="G17" s="3">
-        <v>232500</v>
+        <v>221700</v>
       </c>
       <c r="H17" s="3">
-        <v>91200</v>
+        <v>86900</v>
       </c>
       <c r="I17" s="3">
-        <v>37400</v>
+        <v>35600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11200</v>
+        <v>-10700</v>
       </c>
       <c r="E18" s="3">
-        <v>-32500</v>
+        <v>-31000</v>
       </c>
       <c r="F18" s="3">
-        <v>-135600</v>
+        <v>-129200</v>
       </c>
       <c r="G18" s="3">
         <v>1600</v>
       </c>
       <c r="H18" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="I18" s="3">
-        <v>-29400</v>
+        <v>-28000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F20" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="E21" s="3">
-        <v>-33800</v>
+        <v>-32300</v>
       </c>
       <c r="F21" s="3">
-        <v>-130300</v>
+        <v>-124200</v>
       </c>
       <c r="G21" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H21" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="I21" s="3">
-        <v>-28800</v>
+        <v>-27500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="E23" s="3">
-        <v>-36100</v>
+        <v>-34400</v>
       </c>
       <c r="F23" s="3">
-        <v>-132100</v>
+        <v>-125900</v>
       </c>
       <c r="G23" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H23" s="3">
-        <v>-9700</v>
+        <v>-9200</v>
       </c>
       <c r="I23" s="3">
-        <v>-29300</v>
+        <v>-27900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1237,7 +1237,7 @@
         <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1246,7 +1246,7 @@
         <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15900</v>
+        <v>-15100</v>
       </c>
       <c r="E26" s="3">
-        <v>-43200</v>
+        <v>-41200</v>
       </c>
       <c r="F26" s="3">
-        <v>-132400</v>
+        <v>-126200</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
       <c r="H26" s="3">
-        <v>-12400</v>
+        <v>-11800</v>
       </c>
       <c r="I26" s="3">
-        <v>-29300</v>
+        <v>-27900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="E27" s="3">
-        <v>-42900</v>
+        <v>-40900</v>
       </c>
       <c r="F27" s="3">
-        <v>-132300</v>
+        <v>-126100</v>
       </c>
       <c r="G27" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="H27" s="3">
-        <v>-19000</v>
+        <v>-18100</v>
       </c>
       <c r="I27" s="3">
-        <v>-35400</v>
+        <v>-33700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F32" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="E33" s="3">
-        <v>-42900</v>
+        <v>-40900</v>
       </c>
       <c r="F33" s="3">
-        <v>-132300</v>
+        <v>-126100</v>
       </c>
       <c r="G33" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="H33" s="3">
-        <v>-19000</v>
+        <v>-18100</v>
       </c>
       <c r="I33" s="3">
-        <v>-35400</v>
+        <v>-33700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="E35" s="3">
-        <v>-42900</v>
+        <v>-40900</v>
       </c>
       <c r="F35" s="3">
-        <v>-132300</v>
+        <v>-126100</v>
       </c>
       <c r="G35" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="H35" s="3">
-        <v>-19000</v>
+        <v>-18100</v>
       </c>
       <c r="I35" s="3">
-        <v>-35400</v>
+        <v>-33700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31800</v>
+        <v>30300</v>
       </c>
       <c r="E41" s="3">
-        <v>55100</v>
+        <v>52500</v>
       </c>
       <c r="F41" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="G41" s="3">
-        <v>66800</v>
+        <v>63700</v>
       </c>
       <c r="H41" s="3">
-        <v>54200</v>
+        <v>51600</v>
       </c>
       <c r="I41" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,16 +1775,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F42" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="G42" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H42" s="3">
         <v>300</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20600</v>
+        <v>19600</v>
       </c>
       <c r="E43" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="F43" s="3">
-        <v>74200</v>
+        <v>70800</v>
       </c>
       <c r="G43" s="3">
-        <v>209500</v>
+        <v>199700</v>
       </c>
       <c r="H43" s="3">
-        <v>261800</v>
+        <v>249600</v>
       </c>
       <c r="I43" s="3">
-        <v>69800</v>
+        <v>66600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22600</v>
+        <v>21600</v>
       </c>
       <c r="E45" s="3">
-        <v>28900</v>
+        <v>27600</v>
       </c>
       <c r="F45" s="3">
-        <v>66800</v>
+        <v>63700</v>
       </c>
       <c r="G45" s="3">
-        <v>45800</v>
+        <v>43700</v>
       </c>
       <c r="H45" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="I45" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76900</v>
+        <v>73300</v>
       </c>
       <c r="E46" s="3">
-        <v>105300</v>
+        <v>100300</v>
       </c>
       <c r="F46" s="3">
-        <v>169400</v>
+        <v>161500</v>
       </c>
       <c r="G46" s="3">
-        <v>322800</v>
+        <v>307700</v>
       </c>
       <c r="H46" s="3">
-        <v>325100</v>
+        <v>309900</v>
       </c>
       <c r="I46" s="3">
-        <v>76300</v>
+        <v>72800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18000</v>
+        <v>17200</v>
       </c>
       <c r="E47" s="3">
-        <v>18200</v>
+        <v>17400</v>
       </c>
       <c r="F47" s="3">
-        <v>20600</v>
+        <v>19700</v>
       </c>
       <c r="G47" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="H47" s="3">
-        <v>27000</v>
+        <v>25800</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="E48" s="3">
-        <v>15700</v>
+        <v>14900</v>
       </c>
       <c r="F48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2030,19 +2030,19 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F49" s="3">
-        <v>12400</v>
+        <v>11800</v>
       </c>
       <c r="G49" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I49" s="3">
         <v>4800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>5000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2141,10 +2141,10 @@
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>23400</v>
+        <v>22300</v>
       </c>
       <c r="G52" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>111200</v>
+        <v>106000</v>
       </c>
       <c r="E54" s="3">
-        <v>142900</v>
+        <v>136200</v>
       </c>
       <c r="F54" s="3">
-        <v>227900</v>
+        <v>217200</v>
       </c>
       <c r="G54" s="3">
-        <v>345800</v>
+        <v>329600</v>
       </c>
       <c r="H54" s="3">
-        <v>357900</v>
+        <v>341200</v>
       </c>
       <c r="I54" s="3">
-        <v>82100</v>
+        <v>78200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F57" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="G57" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H57" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="I57" s="3">
         <v>1000</v>
@@ -2314,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="F58" s="3">
-        <v>102400</v>
+        <v>97600</v>
       </c>
       <c r="G58" s="3">
-        <v>133600</v>
+        <v>127400</v>
       </c>
       <c r="H58" s="3">
-        <v>213700</v>
+        <v>203700</v>
       </c>
       <c r="I58" s="3">
-        <v>55800</v>
+        <v>53200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56000</v>
+        <v>53400</v>
       </c>
       <c r="E59" s="3">
-        <v>55300</v>
+        <v>52700</v>
       </c>
       <c r="F59" s="3">
-        <v>47100</v>
+        <v>44900</v>
       </c>
       <c r="G59" s="3">
-        <v>49900</v>
+        <v>47600</v>
       </c>
       <c r="H59" s="3">
-        <v>75500</v>
+        <v>72000</v>
       </c>
       <c r="I59" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>59100</v>
+        <v>56400</v>
       </c>
       <c r="E60" s="3">
-        <v>76200</v>
+        <v>72600</v>
       </c>
       <c r="F60" s="3">
-        <v>157900</v>
+        <v>150600</v>
       </c>
       <c r="G60" s="3">
-        <v>187000</v>
+        <v>178200</v>
       </c>
       <c r="H60" s="3">
-        <v>295500</v>
+        <v>281600</v>
       </c>
       <c r="I60" s="3">
-        <v>83400</v>
+        <v>79500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58400</v>
+        <v>55700</v>
       </c>
       <c r="E61" s="3">
-        <v>58400</v>
+        <v>55700</v>
       </c>
       <c r="F61" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="G61" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H61" s="3">
-        <v>68600</v>
+        <v>65400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>144000</v>
+        <v>137300</v>
       </c>
       <c r="E66" s="3">
-        <v>160300</v>
+        <v>152800</v>
       </c>
       <c r="F66" s="3">
-        <v>200200</v>
+        <v>190900</v>
       </c>
       <c r="G66" s="3">
-        <v>191400</v>
+        <v>182500</v>
       </c>
       <c r="H66" s="3">
-        <v>367000</v>
+        <v>349800</v>
       </c>
       <c r="I66" s="3">
-        <v>83400</v>
+        <v>79500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-325200</v>
+        <v>-309900</v>
       </c>
       <c r="E72" s="3">
-        <v>-310300</v>
+        <v>-295800</v>
       </c>
       <c r="F72" s="3">
-        <v>-267400</v>
+        <v>-254900</v>
       </c>
       <c r="G72" s="3">
-        <v>-127200</v>
+        <v>-121200</v>
       </c>
       <c r="H72" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-32800</v>
+        <v>-31300</v>
       </c>
       <c r="E76" s="3">
-        <v>-17400</v>
+        <v>-16600</v>
       </c>
       <c r="F76" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="G76" s="3">
-        <v>154400</v>
+        <v>147200</v>
       </c>
       <c r="H76" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="I76" s="3">
         <v>-1300</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="E81" s="3">
-        <v>-42900</v>
+        <v>-40900</v>
       </c>
       <c r="F81" s="3">
-        <v>-132300</v>
+        <v>-126100</v>
       </c>
       <c r="G81" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="H81" s="3">
-        <v>-19000</v>
+        <v>-18100</v>
       </c>
       <c r="I81" s="3">
-        <v>-35400</v>
+        <v>-33700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="E89" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="F89" s="3">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="G89" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="H89" s="3">
-        <v>28800</v>
+        <v>27500</v>
       </c>
       <c r="I89" s="3">
-        <v>-18000</v>
+        <v>-17100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3375,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-14300</v>
+        <v>-13600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17400</v>
+        <v>-16600</v>
       </c>
       <c r="E94" s="3">
-        <v>28100</v>
+        <v>26800</v>
       </c>
       <c r="F94" s="3">
-        <v>-78700</v>
+        <v>-75000</v>
       </c>
       <c r="G94" s="3">
-        <v>36600</v>
+        <v>34900</v>
       </c>
       <c r="H94" s="3">
-        <v>-211000</v>
+        <v>-201100</v>
       </c>
       <c r="I94" s="3">
-        <v>-15800</v>
+        <v>-15100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19300</v>
+        <v>-18400</v>
       </c>
       <c r="E100" s="3">
-        <v>-41900</v>
+        <v>-39900</v>
       </c>
       <c r="F100" s="3">
-        <v>32800</v>
+        <v>31200</v>
       </c>
       <c r="G100" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="H100" s="3">
-        <v>233100</v>
+        <v>222200</v>
       </c>
       <c r="I100" s="3">
-        <v>37500</v>
+        <v>35700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G101" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43500</v>
+        <v>-41400</v>
       </c>
       <c r="E102" s="3">
-        <v>-8600</v>
+        <v>-8200</v>
       </c>
       <c r="F102" s="3">
-        <v>-18900</v>
+        <v>-18000</v>
       </c>
       <c r="G102" s="3">
-        <v>48800</v>
+        <v>46500</v>
       </c>
       <c r="H102" s="3">
-        <v>50900</v>
+        <v>48500</v>
       </c>
       <c r="I102" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24100</v>
+        <v>24900</v>
       </c>
       <c r="E8" s="3">
-        <v>52700</v>
+        <v>54300</v>
       </c>
       <c r="F8" s="3">
-        <v>178900</v>
+        <v>184600</v>
       </c>
       <c r="G8" s="3">
-        <v>223200</v>
+        <v>230300</v>
       </c>
       <c r="H8" s="3">
-        <v>79200</v>
+        <v>81700</v>
       </c>
       <c r="I8" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="E9" s="3">
-        <v>39800</v>
+        <v>41000</v>
       </c>
       <c r="F9" s="3">
-        <v>107100</v>
+        <v>110500</v>
       </c>
       <c r="G9" s="3">
-        <v>151000</v>
+        <v>155800</v>
       </c>
       <c r="H9" s="3">
-        <v>51800</v>
+        <v>53500</v>
       </c>
       <c r="I9" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="E10" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="F10" s="3">
-        <v>71800</v>
+        <v>74000</v>
       </c>
       <c r="G10" s="3">
-        <v>72200</v>
+        <v>74500</v>
       </c>
       <c r="H10" s="3">
-        <v>27300</v>
+        <v>28200</v>
       </c>
       <c r="I10" s="3">
         <v>-700</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E12" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F12" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="G12" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="H12" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="I12" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -920,10 +920,10 @@
         <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="F14" s="3">
-        <v>27800</v>
+        <v>28700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="E17" s="3">
-        <v>83700</v>
+        <v>86300</v>
       </c>
       <c r="F17" s="3">
-        <v>308100</v>
+        <v>317900</v>
       </c>
       <c r="G17" s="3">
-        <v>221700</v>
+        <v>228700</v>
       </c>
       <c r="H17" s="3">
-        <v>86900</v>
+        <v>89700</v>
       </c>
       <c r="I17" s="3">
-        <v>35600</v>
+        <v>36800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10700</v>
+        <v>-11000</v>
       </c>
       <c r="E18" s="3">
-        <v>-31000</v>
+        <v>-32000</v>
       </c>
       <c r="F18" s="3">
-        <v>-129200</v>
+        <v>-133300</v>
       </c>
       <c r="G18" s="3">
         <v>1600</v>
       </c>
       <c r="H18" s="3">
-        <v>-7700</v>
+        <v>-8000</v>
       </c>
       <c r="I18" s="3">
-        <v>-28000</v>
+        <v>-28900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="F20" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="E21" s="3">
-        <v>-32300</v>
+        <v>-33300</v>
       </c>
       <c r="F21" s="3">
-        <v>-124200</v>
+        <v>-128100</v>
       </c>
       <c r="G21" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H21" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="I21" s="3">
-        <v>-27500</v>
+        <v>-28300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="E23" s="3">
-        <v>-34400</v>
+        <v>-35500</v>
       </c>
       <c r="F23" s="3">
-        <v>-125900</v>
+        <v>-129900</v>
       </c>
       <c r="G23" s="3">
         <v>1100</v>
       </c>
       <c r="H23" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="I23" s="3">
-        <v>-27900</v>
+        <v>-28800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1237,7 +1237,7 @@
         <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1246,7 +1246,7 @@
         <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="E26" s="3">
-        <v>-41200</v>
+        <v>-42500</v>
       </c>
       <c r="F26" s="3">
-        <v>-126200</v>
+        <v>-130200</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
       <c r="H26" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="I26" s="3">
-        <v>-27900</v>
+        <v>-28800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="E27" s="3">
-        <v>-40900</v>
+        <v>-42200</v>
       </c>
       <c r="F27" s="3">
-        <v>-126100</v>
+        <v>-130100</v>
       </c>
       <c r="G27" s="3">
-        <v>-10400</v>
+        <v>-10700</v>
       </c>
       <c r="H27" s="3">
-        <v>-18100</v>
+        <v>-18700</v>
       </c>
       <c r="I27" s="3">
-        <v>-33700</v>
+        <v>-34800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F32" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="E33" s="3">
-        <v>-40900</v>
+        <v>-42200</v>
       </c>
       <c r="F33" s="3">
-        <v>-126100</v>
+        <v>-130100</v>
       </c>
       <c r="G33" s="3">
-        <v>-10400</v>
+        <v>-10700</v>
       </c>
       <c r="H33" s="3">
-        <v>-18100</v>
+        <v>-18700</v>
       </c>
       <c r="I33" s="3">
-        <v>-33700</v>
+        <v>-34800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="E35" s="3">
-        <v>-40900</v>
+        <v>-42200</v>
       </c>
       <c r="F35" s="3">
-        <v>-126100</v>
+        <v>-130100</v>
       </c>
       <c r="G35" s="3">
-        <v>-10400</v>
+        <v>-10700</v>
       </c>
       <c r="H35" s="3">
-        <v>-18100</v>
+        <v>-18700</v>
       </c>
       <c r="I35" s="3">
-        <v>-33700</v>
+        <v>-34800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30300</v>
+        <v>31300</v>
       </c>
       <c r="E41" s="3">
-        <v>52500</v>
+        <v>54200</v>
       </c>
       <c r="F41" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="G41" s="3">
-        <v>63700</v>
+        <v>65700</v>
       </c>
       <c r="H41" s="3">
-        <v>51600</v>
+        <v>53300</v>
       </c>
       <c r="I41" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E42" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="G42" s="3">
         <v>2200</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19600</v>
+        <v>20300</v>
       </c>
       <c r="E43" s="3">
-        <v>17700</v>
+        <v>18300</v>
       </c>
       <c r="F43" s="3">
-        <v>70800</v>
+        <v>73000</v>
       </c>
       <c r="G43" s="3">
-        <v>199700</v>
+        <v>206000</v>
       </c>
       <c r="H43" s="3">
-        <v>249600</v>
+        <v>257500</v>
       </c>
       <c r="I43" s="3">
-        <v>66600</v>
+        <v>68700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21600</v>
+        <v>22300</v>
       </c>
       <c r="E45" s="3">
-        <v>27600</v>
+        <v>28400</v>
       </c>
       <c r="F45" s="3">
-        <v>63700</v>
+        <v>65700</v>
       </c>
       <c r="G45" s="3">
-        <v>43700</v>
+        <v>45100</v>
       </c>
       <c r="H45" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="I45" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>73300</v>
+        <v>75700</v>
       </c>
       <c r="E46" s="3">
-        <v>100300</v>
+        <v>103500</v>
       </c>
       <c r="F46" s="3">
-        <v>161500</v>
+        <v>166600</v>
       </c>
       <c r="G46" s="3">
-        <v>307700</v>
+        <v>317400</v>
       </c>
       <c r="H46" s="3">
-        <v>309900</v>
+        <v>319700</v>
       </c>
       <c r="I46" s="3">
-        <v>72800</v>
+        <v>75100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="E47" s="3">
-        <v>17400</v>
+        <v>17900</v>
       </c>
       <c r="F47" s="3">
-        <v>19700</v>
+        <v>20300</v>
       </c>
       <c r="G47" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="H47" s="3">
-        <v>25800</v>
+        <v>26600</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="E48" s="3">
-        <v>14900</v>
+        <v>15400</v>
       </c>
       <c r="F48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
       </c>
       <c r="H48" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2030,19 +2030,19 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F49" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="G49" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H49" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I49" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2141,10 +2141,10 @@
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>22300</v>
+        <v>23000</v>
       </c>
       <c r="G52" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>106000</v>
+        <v>109300</v>
       </c>
       <c r="E54" s="3">
-        <v>136200</v>
+        <v>140500</v>
       </c>
       <c r="F54" s="3">
-        <v>217200</v>
+        <v>224100</v>
       </c>
       <c r="G54" s="3">
-        <v>329600</v>
+        <v>340100</v>
       </c>
       <c r="H54" s="3">
-        <v>341200</v>
+        <v>352000</v>
       </c>
       <c r="I54" s="3">
-        <v>78200</v>
+        <v>80700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="G57" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H57" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I57" s="3">
         <v>1000</v>
@@ -2314,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>18500</v>
+        <v>19100</v>
       </c>
       <c r="F58" s="3">
-        <v>97600</v>
+        <v>100700</v>
       </c>
       <c r="G58" s="3">
-        <v>127400</v>
+        <v>131400</v>
       </c>
       <c r="H58" s="3">
-        <v>203700</v>
+        <v>210100</v>
       </c>
       <c r="I58" s="3">
-        <v>53200</v>
+        <v>54900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53400</v>
+        <v>55100</v>
       </c>
       <c r="E59" s="3">
-        <v>52700</v>
+        <v>54300</v>
       </c>
       <c r="F59" s="3">
-        <v>44900</v>
+        <v>46300</v>
       </c>
       <c r="G59" s="3">
-        <v>47600</v>
+        <v>49100</v>
       </c>
       <c r="H59" s="3">
-        <v>72000</v>
+        <v>74300</v>
       </c>
       <c r="I59" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56400</v>
+        <v>58200</v>
       </c>
       <c r="E60" s="3">
-        <v>72600</v>
+        <v>74900</v>
       </c>
       <c r="F60" s="3">
-        <v>150600</v>
+        <v>155300</v>
       </c>
       <c r="G60" s="3">
-        <v>178200</v>
+        <v>183900</v>
       </c>
       <c r="H60" s="3">
-        <v>281600</v>
+        <v>290600</v>
       </c>
       <c r="I60" s="3">
-        <v>79500</v>
+        <v>82000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55700</v>
+        <v>57400</v>
       </c>
       <c r="E61" s="3">
-        <v>55700</v>
+        <v>57400</v>
       </c>
       <c r="F61" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="G61" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H61" s="3">
-        <v>65400</v>
+        <v>67500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>137300</v>
+        <v>141600</v>
       </c>
       <c r="E66" s="3">
-        <v>152800</v>
+        <v>157600</v>
       </c>
       <c r="F66" s="3">
-        <v>190900</v>
+        <v>196900</v>
       </c>
       <c r="G66" s="3">
-        <v>182500</v>
+        <v>188200</v>
       </c>
       <c r="H66" s="3">
-        <v>349800</v>
+        <v>360900</v>
       </c>
       <c r="I66" s="3">
-        <v>79500</v>
+        <v>82000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-309900</v>
+        <v>-319800</v>
       </c>
       <c r="E72" s="3">
-        <v>-295800</v>
+        <v>-305200</v>
       </c>
       <c r="F72" s="3">
-        <v>-254900</v>
+        <v>-263000</v>
       </c>
       <c r="G72" s="3">
-        <v>-121200</v>
+        <v>-125100</v>
       </c>
       <c r="H72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-31300</v>
+        <v>-32300</v>
       </c>
       <c r="E76" s="3">
-        <v>-16600</v>
+        <v>-17100</v>
       </c>
       <c r="F76" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="G76" s="3">
-        <v>147200</v>
+        <v>151800</v>
       </c>
       <c r="H76" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="I76" s="3">
         <v>-1300</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="E81" s="3">
-        <v>-40900</v>
+        <v>-42200</v>
       </c>
       <c r="F81" s="3">
-        <v>-126100</v>
+        <v>-130100</v>
       </c>
       <c r="G81" s="3">
-        <v>-10400</v>
+        <v>-10700</v>
       </c>
       <c r="H81" s="3">
-        <v>-18100</v>
+        <v>-18700</v>
       </c>
       <c r="I81" s="3">
-        <v>-33700</v>
+        <v>-34800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="E89" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="F89" s="3">
-        <v>24400</v>
+        <v>25100</v>
       </c>
       <c r="G89" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="H89" s="3">
-        <v>27500</v>
+        <v>28400</v>
       </c>
       <c r="I89" s="3">
-        <v>-17100</v>
+        <v>-17700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-13600</v>
+        <v>-14000</v>
       </c>
       <c r="F91" s="3">
         <v>-1400</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16600</v>
+        <v>-17200</v>
       </c>
       <c r="E94" s="3">
-        <v>26800</v>
+        <v>27700</v>
       </c>
       <c r="F94" s="3">
-        <v>-75000</v>
+        <v>-77400</v>
       </c>
       <c r="G94" s="3">
-        <v>34900</v>
+        <v>36000</v>
       </c>
       <c r="H94" s="3">
-        <v>-201100</v>
+        <v>-207500</v>
       </c>
       <c r="I94" s="3">
-        <v>-15100</v>
+        <v>-15500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="E100" s="3">
-        <v>-39900</v>
+        <v>-41200</v>
       </c>
       <c r="F100" s="3">
-        <v>31200</v>
+        <v>32200</v>
       </c>
       <c r="G100" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="H100" s="3">
-        <v>222200</v>
+        <v>229200</v>
       </c>
       <c r="I100" s="3">
-        <v>35700</v>
+        <v>36900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-41400</v>
+        <v>-42700</v>
       </c>
       <c r="E102" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="F102" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="G102" s="3">
-        <v>46500</v>
+        <v>48000</v>
       </c>
       <c r="H102" s="3">
-        <v>48500</v>
+        <v>50100</v>
       </c>
       <c r="I102" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="E8" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="F8" s="3">
-        <v>184600</v>
+        <v>182700</v>
       </c>
       <c r="G8" s="3">
-        <v>230300</v>
+        <v>228000</v>
       </c>
       <c r="H8" s="3">
-        <v>81700</v>
+        <v>80800</v>
       </c>
       <c r="I8" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="E9" s="3">
-        <v>41000</v>
+        <v>40600</v>
       </c>
       <c r="F9" s="3">
-        <v>110500</v>
+        <v>109400</v>
       </c>
       <c r="G9" s="3">
-        <v>155800</v>
+        <v>154200</v>
       </c>
       <c r="H9" s="3">
-        <v>53500</v>
+        <v>52900</v>
       </c>
       <c r="I9" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="E10" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="F10" s="3">
-        <v>74000</v>
+        <v>73300</v>
       </c>
       <c r="G10" s="3">
-        <v>74500</v>
+        <v>73800</v>
       </c>
       <c r="H10" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="I10" s="3">
         <v>-700</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E12" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="F12" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="G12" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="H12" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I12" s="3">
         <v>7300</v>
@@ -920,10 +920,10 @@
         <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="F14" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="E17" s="3">
-        <v>86300</v>
+        <v>85400</v>
       </c>
       <c r="F17" s="3">
-        <v>317900</v>
+        <v>314700</v>
       </c>
       <c r="G17" s="3">
-        <v>228700</v>
+        <v>226400</v>
       </c>
       <c r="H17" s="3">
-        <v>89700</v>
+        <v>88700</v>
       </c>
       <c r="I17" s="3">
-        <v>36800</v>
+        <v>36400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="E18" s="3">
-        <v>-32000</v>
+        <v>-31700</v>
       </c>
       <c r="F18" s="3">
-        <v>-133300</v>
+        <v>-132000</v>
       </c>
       <c r="G18" s="3">
         <v>1600</v>
       </c>
       <c r="H18" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="I18" s="3">
-        <v>-28900</v>
+        <v>-28600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F20" s="3">
         <v>3400</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="E21" s="3">
-        <v>-33300</v>
+        <v>-32900</v>
       </c>
       <c r="F21" s="3">
-        <v>-128100</v>
+        <v>-126800</v>
       </c>
       <c r="G21" s="3">
         <v>1800</v>
       </c>
       <c r="H21" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="I21" s="3">
-        <v>-28300</v>
+        <v>-28100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="E23" s="3">
-        <v>-35500</v>
+        <v>-35100</v>
       </c>
       <c r="F23" s="3">
-        <v>-129900</v>
+        <v>-128600</v>
       </c>
       <c r="G23" s="3">
         <v>1100</v>
       </c>
       <c r="H23" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="I23" s="3">
-        <v>-28800</v>
+        <v>-28500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1237,7 +1237,7 @@
         <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1246,7 +1246,7 @@
         <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15600</v>
+        <v>-15500</v>
       </c>
       <c r="E26" s="3">
-        <v>-42500</v>
+        <v>-42100</v>
       </c>
       <c r="F26" s="3">
-        <v>-130200</v>
+        <v>-128900</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
       <c r="H26" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="I26" s="3">
-        <v>-28800</v>
+        <v>-28500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="E27" s="3">
-        <v>-42200</v>
+        <v>-41800</v>
       </c>
       <c r="F27" s="3">
-        <v>-130100</v>
+        <v>-128800</v>
       </c>
       <c r="G27" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="H27" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="I27" s="3">
-        <v>-34800</v>
+        <v>-34400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F32" s="3">
         <v>-3400</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="E33" s="3">
-        <v>-42200</v>
+        <v>-41800</v>
       </c>
       <c r="F33" s="3">
-        <v>-130100</v>
+        <v>-128800</v>
       </c>
       <c r="G33" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="H33" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="I33" s="3">
-        <v>-34800</v>
+        <v>-34400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="E35" s="3">
-        <v>-42200</v>
+        <v>-41800</v>
       </c>
       <c r="F35" s="3">
-        <v>-130100</v>
+        <v>-128800</v>
       </c>
       <c r="G35" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="H35" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="I35" s="3">
-        <v>-34800</v>
+        <v>-34400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="E41" s="3">
-        <v>54200</v>
+        <v>53600</v>
       </c>
       <c r="F41" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="G41" s="3">
-        <v>65700</v>
+        <v>65000</v>
       </c>
       <c r="H41" s="3">
-        <v>53300</v>
+        <v>52700</v>
       </c>
       <c r="I41" s="3">
         <v>3900</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F42" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="G42" s="3">
         <v>2200</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="E43" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="F43" s="3">
-        <v>73000</v>
+        <v>72300</v>
       </c>
       <c r="G43" s="3">
-        <v>206000</v>
+        <v>203900</v>
       </c>
       <c r="H43" s="3">
-        <v>257500</v>
+        <v>254900</v>
       </c>
       <c r="I43" s="3">
-        <v>68700</v>
+        <v>68000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="E45" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="F45" s="3">
-        <v>65700</v>
+        <v>65000</v>
       </c>
       <c r="G45" s="3">
-        <v>45100</v>
+        <v>44600</v>
       </c>
       <c r="H45" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="I45" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>75700</v>
+        <v>74900</v>
       </c>
       <c r="E46" s="3">
-        <v>103500</v>
+        <v>102500</v>
       </c>
       <c r="F46" s="3">
-        <v>166600</v>
+        <v>164900</v>
       </c>
       <c r="G46" s="3">
-        <v>317400</v>
+        <v>314200</v>
       </c>
       <c r="H46" s="3">
-        <v>319700</v>
+        <v>316500</v>
       </c>
       <c r="I46" s="3">
-        <v>75100</v>
+        <v>74300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E47" s="3">
         <v>17700</v>
       </c>
-      <c r="E47" s="3">
-        <v>17900</v>
-      </c>
       <c r="F47" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="G47" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H47" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="E48" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="F48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2033,16 +2033,16 @@
         <v>2400</v>
       </c>
       <c r="F49" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="G49" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H49" s="3">
         <v>4700</v>
       </c>
       <c r="I49" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2141,10 +2141,10 @@
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="G52" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>109300</v>
+        <v>108200</v>
       </c>
       <c r="E54" s="3">
-        <v>140500</v>
+        <v>139100</v>
       </c>
       <c r="F54" s="3">
-        <v>224100</v>
+        <v>221800</v>
       </c>
       <c r="G54" s="3">
-        <v>340100</v>
+        <v>336600</v>
       </c>
       <c r="H54" s="3">
-        <v>352000</v>
+        <v>348400</v>
       </c>
       <c r="I54" s="3">
-        <v>80700</v>
+        <v>79900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
       </c>
       <c r="F57" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="G57" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H57" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="I57" s="3">
         <v>1000</v>
@@ -2314,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="F58" s="3">
-        <v>100700</v>
+        <v>99700</v>
       </c>
       <c r="G58" s="3">
-        <v>131400</v>
+        <v>130100</v>
       </c>
       <c r="H58" s="3">
-        <v>210100</v>
+        <v>208000</v>
       </c>
       <c r="I58" s="3">
-        <v>54900</v>
+        <v>54300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55100</v>
+        <v>54500</v>
       </c>
       <c r="E59" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="F59" s="3">
-        <v>46300</v>
+        <v>45900</v>
       </c>
       <c r="G59" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="H59" s="3">
-        <v>74300</v>
+        <v>73500</v>
       </c>
       <c r="I59" s="3">
-        <v>26100</v>
+        <v>25900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>58200</v>
+        <v>57600</v>
       </c>
       <c r="E60" s="3">
-        <v>74900</v>
+        <v>74100</v>
       </c>
       <c r="F60" s="3">
-        <v>155300</v>
+        <v>153700</v>
       </c>
       <c r="G60" s="3">
-        <v>183900</v>
+        <v>182000</v>
       </c>
       <c r="H60" s="3">
-        <v>290600</v>
+        <v>287600</v>
       </c>
       <c r="I60" s="3">
-        <v>82000</v>
+        <v>81200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="E61" s="3">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="F61" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="G61" s="3">
         <v>3100</v>
       </c>
       <c r="H61" s="3">
-        <v>67500</v>
+        <v>66800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
         <v>1300</v>
@@ -2464,10 +2464,10 @@
         <v>2700</v>
       </c>
       <c r="G62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>141600</v>
+        <v>140200</v>
       </c>
       <c r="E66" s="3">
-        <v>157600</v>
+        <v>156000</v>
       </c>
       <c r="F66" s="3">
-        <v>196900</v>
+        <v>194900</v>
       </c>
       <c r="G66" s="3">
-        <v>188200</v>
+        <v>186300</v>
       </c>
       <c r="H66" s="3">
-        <v>360900</v>
+        <v>357200</v>
       </c>
       <c r="I66" s="3">
-        <v>82000</v>
+        <v>81200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-319800</v>
+        <v>-316500</v>
       </c>
       <c r="E72" s="3">
-        <v>-305200</v>
+        <v>-302100</v>
       </c>
       <c r="F72" s="3">
-        <v>-263000</v>
+        <v>-260300</v>
       </c>
       <c r="G72" s="3">
-        <v>-125100</v>
+        <v>-123800</v>
       </c>
       <c r="H72" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-32300</v>
+        <v>-32000</v>
       </c>
       <c r="E76" s="3">
-        <v>-17100</v>
+        <v>-16900</v>
       </c>
       <c r="F76" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="G76" s="3">
-        <v>151800</v>
+        <v>150300</v>
       </c>
       <c r="H76" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="I76" s="3">
         <v>-1300</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="E81" s="3">
-        <v>-42200</v>
+        <v>-41800</v>
       </c>
       <c r="F81" s="3">
-        <v>-130100</v>
+        <v>-128800</v>
       </c>
       <c r="G81" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="H81" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="I81" s="3">
-        <v>-34800</v>
+        <v>-34400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3110,7 +3110,7 @@
         <v>2200</v>
       </c>
       <c r="F83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -3323,19 +3323,19 @@
         <v>-4600</v>
       </c>
       <c r="E89" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="F89" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="G89" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="H89" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="I89" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="F91" s="3">
         <v>-1400</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17200</v>
+        <v>-17000</v>
       </c>
       <c r="E94" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="F94" s="3">
-        <v>-77400</v>
+        <v>-76600</v>
       </c>
       <c r="G94" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="H94" s="3">
-        <v>-207500</v>
+        <v>-205400</v>
       </c>
       <c r="I94" s="3">
-        <v>-15500</v>
+        <v>-15400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="E100" s="3">
-        <v>-41200</v>
+        <v>-40700</v>
       </c>
       <c r="F100" s="3">
-        <v>32200</v>
+        <v>31900</v>
       </c>
       <c r="G100" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="H100" s="3">
-        <v>229200</v>
+        <v>226900</v>
       </c>
       <c r="I100" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,13 +3712,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E101" s="3">
         <v>-3100</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G101" s="3">
         <v>3500</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42700</v>
+        <v>-42300</v>
       </c>
       <c r="E102" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="F102" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="G102" s="3">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="H102" s="3">
-        <v>50100</v>
+        <v>49600</v>
       </c>
       <c r="I102" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24600</v>
+        <v>10300</v>
       </c>
       <c r="E8" s="3">
-        <v>53800</v>
+        <v>23900</v>
       </c>
       <c r="F8" s="3">
-        <v>182700</v>
+        <v>52100</v>
       </c>
       <c r="G8" s="3">
-        <v>228000</v>
+        <v>177100</v>
       </c>
       <c r="H8" s="3">
-        <v>80800</v>
+        <v>220900</v>
       </c>
       <c r="I8" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>78400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12800</v>
+        <v>8600</v>
       </c>
       <c r="E9" s="3">
-        <v>40600</v>
+        <v>12400</v>
       </c>
       <c r="F9" s="3">
-        <v>109400</v>
+        <v>39400</v>
       </c>
       <c r="G9" s="3">
-        <v>154200</v>
+        <v>106000</v>
       </c>
       <c r="H9" s="3">
-        <v>52900</v>
+        <v>149500</v>
       </c>
       <c r="I9" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>51300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,33 +792,36 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11900</v>
+        <v>1600</v>
       </c>
       <c r="E10" s="3">
-        <v>13100</v>
+        <v>11500</v>
       </c>
       <c r="F10" s="3">
-        <v>73300</v>
+        <v>12700</v>
       </c>
       <c r="G10" s="3">
-        <v>73800</v>
+        <v>71000</v>
       </c>
       <c r="H10" s="3">
-        <v>27900</v>
+        <v>71500</v>
       </c>
       <c r="I10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J10" s="3">
         <v>-700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,31 +851,32 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="E12" s="3">
-        <v>5300</v>
+        <v>3100</v>
       </c>
       <c r="F12" s="3">
-        <v>11200</v>
+        <v>5200</v>
       </c>
       <c r="G12" s="3">
-        <v>13500</v>
+        <v>10900</v>
       </c>
       <c r="H12" s="3">
-        <v>10200</v>
+        <v>13100</v>
       </c>
       <c r="I12" s="3">
-        <v>7300</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>9900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,32 +926,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
-        <v>12100</v>
-      </c>
       <c r="F14" s="3">
-        <v>28400</v>
+        <v>11700</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35500</v>
+        <v>33700</v>
       </c>
       <c r="E17" s="3">
-        <v>85400</v>
+        <v>34500</v>
       </c>
       <c r="F17" s="3">
-        <v>314700</v>
+        <v>82800</v>
       </c>
       <c r="G17" s="3">
-        <v>226400</v>
+        <v>305000</v>
       </c>
       <c r="H17" s="3">
-        <v>88700</v>
+        <v>219400</v>
       </c>
       <c r="I17" s="3">
-        <v>36400</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>86000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>35300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10900</v>
+        <v>-23500</v>
       </c>
       <c r="E18" s="3">
-        <v>-31700</v>
+        <v>-10600</v>
       </c>
       <c r="F18" s="3">
-        <v>-132000</v>
+        <v>-30700</v>
       </c>
       <c r="G18" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-7900</v>
-      </c>
       <c r="I18" s="3">
-        <v>-28600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-7700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-27700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,32 +1116,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3400</v>
-      </c>
       <c r="F20" s="3">
-        <v>3400</v>
+        <v>-3300</v>
       </c>
       <c r="G20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-8100</v>
+        <v>-22600</v>
       </c>
       <c r="E21" s="3">
-        <v>-32900</v>
+        <v>-7900</v>
       </c>
       <c r="F21" s="3">
-        <v>-126800</v>
+        <v>-31900</v>
       </c>
       <c r="G21" s="3">
-        <v>1800</v>
+        <v>-122900</v>
       </c>
       <c r="H21" s="3">
-        <v>-8800</v>
+        <v>1700</v>
       </c>
       <c r="I21" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-8600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-27200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,17 +1191,20 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1182,8 +1221,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1191,32 +1230,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14500</v>
+        <v>-26700</v>
       </c>
       <c r="E23" s="3">
-        <v>-35100</v>
+        <v>-14000</v>
       </c>
       <c r="F23" s="3">
-        <v>-128600</v>
+        <v>-34000</v>
       </c>
       <c r="G23" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-9400</v>
-      </c>
       <c r="I23" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-27600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,32 +1269,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>7000</v>
+        <v>900</v>
       </c>
       <c r="F24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15500</v>
+        <v>-27100</v>
       </c>
       <c r="E26" s="3">
-        <v>-42100</v>
+        <v>-15000</v>
       </c>
       <c r="F26" s="3">
-        <v>-128900</v>
+        <v>-40800</v>
       </c>
       <c r="G26" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-12100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-11700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-27600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14500</v>
+        <v>-26200</v>
       </c>
       <c r="E27" s="3">
-        <v>-41800</v>
+        <v>-14000</v>
       </c>
       <c r="F27" s="3">
-        <v>-128800</v>
+        <v>-40500</v>
       </c>
       <c r="G27" s="3">
-        <v>-10600</v>
+        <v>-124800</v>
       </c>
       <c r="H27" s="3">
-        <v>-18500</v>
+        <v>-10300</v>
       </c>
       <c r="I27" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-18000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-33400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,33 +1581,36 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>3400</v>
-      </c>
       <c r="F32" s="3">
-        <v>-3400</v>
+        <v>3300</v>
       </c>
       <c r="G32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14500</v>
+        <v>-26200</v>
       </c>
       <c r="E33" s="3">
-        <v>-41800</v>
+        <v>-14000</v>
       </c>
       <c r="F33" s="3">
-        <v>-128800</v>
+        <v>-40500</v>
       </c>
       <c r="G33" s="3">
-        <v>-10600</v>
+        <v>-124800</v>
       </c>
       <c r="H33" s="3">
-        <v>-18500</v>
+        <v>-10300</v>
       </c>
       <c r="I33" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-18000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-33400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14500</v>
+        <v>-26200</v>
       </c>
       <c r="E35" s="3">
-        <v>-41800</v>
+        <v>-14000</v>
       </c>
       <c r="F35" s="3">
-        <v>-128800</v>
+        <v>-40500</v>
       </c>
       <c r="G35" s="3">
-        <v>-10600</v>
+        <v>-124800</v>
       </c>
       <c r="H35" s="3">
-        <v>-18500</v>
+        <v>-10300</v>
       </c>
       <c r="I35" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-18000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-33400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31000</v>
+        <v>34400</v>
       </c>
       <c r="E41" s="3">
-        <v>53600</v>
+        <v>30000</v>
       </c>
       <c r="F41" s="3">
-        <v>14600</v>
+        <v>52000</v>
       </c>
       <c r="G41" s="3">
-        <v>65000</v>
+        <v>14200</v>
       </c>
       <c r="H41" s="3">
-        <v>52700</v>
+        <v>63000</v>
       </c>
       <c r="I41" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>51100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,32 +1854,35 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2600</v>
       </c>
-      <c r="F42" s="3">
-        <v>13000</v>
-      </c>
       <c r="G42" s="3">
-        <v>2200</v>
+        <v>12600</v>
       </c>
       <c r="H42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1804,32 +1893,35 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E43" s="3">
-        <v>18100</v>
+        <v>19400</v>
       </c>
       <c r="F43" s="3">
-        <v>72300</v>
+        <v>17500</v>
       </c>
       <c r="G43" s="3">
-        <v>203900</v>
+        <v>70000</v>
       </c>
       <c r="H43" s="3">
-        <v>254900</v>
+        <v>197600</v>
       </c>
       <c r="I43" s="3">
-        <v>68000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>247000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>65900</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,33 +1971,36 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22000</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>28100</v>
+        <v>21400</v>
       </c>
       <c r="F45" s="3">
-        <v>65000</v>
+        <v>27300</v>
       </c>
       <c r="G45" s="3">
-        <v>44600</v>
+        <v>63000</v>
       </c>
       <c r="H45" s="3">
-        <v>8600</v>
+        <v>43200</v>
       </c>
       <c r="I45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>74900</v>
+        <v>53600</v>
       </c>
       <c r="E46" s="3">
-        <v>102500</v>
+        <v>72600</v>
       </c>
       <c r="F46" s="3">
-        <v>164900</v>
+        <v>99300</v>
       </c>
       <c r="G46" s="3">
-        <v>314200</v>
+        <v>159800</v>
       </c>
       <c r="H46" s="3">
-        <v>316500</v>
+        <v>304500</v>
       </c>
       <c r="I46" s="3">
-        <v>74300</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>306700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>72000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,32 +2049,35 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17500</v>
+        <v>4800</v>
       </c>
       <c r="E47" s="3">
-        <v>17700</v>
+        <v>17000</v>
       </c>
       <c r="F47" s="3">
-        <v>20100</v>
+        <v>17200</v>
       </c>
       <c r="G47" s="3">
-        <v>11700</v>
+        <v>19500</v>
       </c>
       <c r="H47" s="3">
-        <v>26300</v>
+        <v>11300</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>25500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1984,33 +2088,36 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13600</v>
+        <v>12400</v>
       </c>
       <c r="E48" s="3">
-        <v>15200</v>
+        <v>13200</v>
       </c>
       <c r="F48" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,9 +2127,12 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2030,22 +2140,22 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="F49" s="3">
-        <v>12100</v>
+        <v>2300</v>
       </c>
       <c r="G49" s="3">
-        <v>4400</v>
+        <v>11700</v>
       </c>
       <c r="H49" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="I49" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,26 +2244,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>22800</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>22100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108200</v>
+        <v>72900</v>
       </c>
       <c r="E54" s="3">
-        <v>139100</v>
+        <v>104900</v>
       </c>
       <c r="F54" s="3">
-        <v>221800</v>
+        <v>134800</v>
       </c>
       <c r="G54" s="3">
-        <v>336600</v>
+        <v>215000</v>
       </c>
       <c r="H54" s="3">
-        <v>348400</v>
+        <v>326300</v>
       </c>
       <c r="I54" s="3">
-        <v>79900</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>337700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>77400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,32 +2398,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="F57" s="3">
-        <v>8200</v>
+        <v>1400</v>
       </c>
       <c r="G57" s="3">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="H57" s="3">
-        <v>6100</v>
+        <v>5400</v>
       </c>
       <c r="I57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2304,32 +2434,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="E58" s="3">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>99700</v>
+        <v>18300</v>
       </c>
       <c r="G58" s="3">
-        <v>130100</v>
+        <v>96600</v>
       </c>
       <c r="H58" s="3">
-        <v>208000</v>
+        <v>126100</v>
       </c>
       <c r="I58" s="3">
-        <v>54300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>201600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>52700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54500</v>
+        <v>53800</v>
       </c>
       <c r="E59" s="3">
-        <v>53800</v>
+        <v>52800</v>
       </c>
       <c r="F59" s="3">
-        <v>45900</v>
+        <v>52100</v>
       </c>
       <c r="G59" s="3">
-        <v>48600</v>
+        <v>44400</v>
       </c>
       <c r="H59" s="3">
-        <v>73500</v>
+        <v>47100</v>
       </c>
       <c r="I59" s="3">
-        <v>25900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>71200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>25100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57600</v>
+        <v>72500</v>
       </c>
       <c r="E60" s="3">
-        <v>74100</v>
+        <v>55800</v>
       </c>
       <c r="F60" s="3">
-        <v>153700</v>
+        <v>71900</v>
       </c>
       <c r="G60" s="3">
-        <v>182000</v>
+        <v>149000</v>
       </c>
       <c r="H60" s="3">
-        <v>287600</v>
+        <v>176400</v>
       </c>
       <c r="I60" s="3">
-        <v>81200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>278800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>78700</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,29 +2551,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56900</v>
+        <v>32600</v>
       </c>
       <c r="E61" s="3">
-        <v>56900</v>
+        <v>55100</v>
       </c>
       <c r="F61" s="3">
-        <v>14400</v>
+        <v>55100</v>
       </c>
       <c r="G61" s="3">
-        <v>3100</v>
+        <v>14000</v>
       </c>
       <c r="H61" s="3">
-        <v>66800</v>
+        <v>3000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>64700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2448,32 +2590,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>1300</v>
+        <v>2900</v>
       </c>
       <c r="F62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>140200</v>
+        <v>128300</v>
       </c>
       <c r="E66" s="3">
-        <v>156000</v>
+        <v>135900</v>
       </c>
       <c r="F66" s="3">
-        <v>194900</v>
+        <v>151200</v>
       </c>
       <c r="G66" s="3">
-        <v>186300</v>
+        <v>188900</v>
       </c>
       <c r="H66" s="3">
-        <v>357200</v>
+        <v>180600</v>
       </c>
       <c r="I66" s="3">
-        <v>81200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>346200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>78700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,33 +2958,36 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-316500</v>
+        <v>-333000</v>
       </c>
       <c r="E72" s="3">
-        <v>-302100</v>
+        <v>-306800</v>
       </c>
       <c r="F72" s="3">
-        <v>-260300</v>
+        <v>-292800</v>
       </c>
       <c r="G72" s="3">
-        <v>-123800</v>
+        <v>-252300</v>
       </c>
       <c r="H72" s="3">
-        <v>-8800</v>
+        <v>-120000</v>
       </c>
       <c r="I72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,33 +3114,36 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-32000</v>
+        <v>-55400</v>
       </c>
       <c r="E76" s="3">
-        <v>-16900</v>
+        <v>-31000</v>
       </c>
       <c r="F76" s="3">
-        <v>26900</v>
+        <v>-16400</v>
       </c>
       <c r="G76" s="3">
-        <v>150300</v>
+        <v>26100</v>
       </c>
       <c r="H76" s="3">
-        <v>-8800</v>
+        <v>145700</v>
       </c>
       <c r="I76" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14500</v>
+        <v>-26200</v>
       </c>
       <c r="E81" s="3">
-        <v>-41800</v>
+        <v>-14000</v>
       </c>
       <c r="F81" s="3">
-        <v>-128800</v>
+        <v>-40500</v>
       </c>
       <c r="G81" s="3">
-        <v>-10600</v>
+        <v>-124800</v>
       </c>
       <c r="H81" s="3">
-        <v>-18500</v>
+        <v>-10300</v>
       </c>
       <c r="I81" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-18000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-33400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,32 +3295,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="F83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G83" s="3">
         <v>1700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
       </c>
       <c r="I83" s="3">
+        <v>600</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4600</v>
+        <v>-1400</v>
       </c>
       <c r="E89" s="3">
-        <v>8100</v>
+        <v>-4400</v>
       </c>
       <c r="F89" s="3">
-        <v>24900</v>
+        <v>7800</v>
       </c>
       <c r="G89" s="3">
-        <v>15400</v>
+        <v>24100</v>
       </c>
       <c r="H89" s="3">
-        <v>28100</v>
+        <v>14900</v>
       </c>
       <c r="I89" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>27200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-17000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,8 +3585,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3375,23 +3595,23 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-13900</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17000</v>
+        <v>11900</v>
       </c>
       <c r="E94" s="3">
-        <v>27400</v>
+        <v>-16500</v>
       </c>
       <c r="F94" s="3">
-        <v>-76600</v>
+        <v>26500</v>
       </c>
       <c r="G94" s="3">
-        <v>35600</v>
+        <v>-74200</v>
       </c>
       <c r="H94" s="3">
-        <v>-205400</v>
+        <v>34500</v>
       </c>
       <c r="I94" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-199100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-14900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18800</v>
+        <v>-8000</v>
       </c>
       <c r="E100" s="3">
-        <v>-40700</v>
+        <v>-18200</v>
       </c>
       <c r="F100" s="3">
-        <v>31900</v>
+        <v>-39500</v>
       </c>
       <c r="G100" s="3">
-        <v>-7000</v>
+        <v>30900</v>
       </c>
       <c r="H100" s="3">
-        <v>226900</v>
+        <v>-6800</v>
       </c>
       <c r="I100" s="3">
-        <v>36500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>219900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>35400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,32 +3950,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3100</v>
-      </c>
       <c r="F101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
-        <v>3500</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42300</v>
+        <v>4300</v>
       </c>
       <c r="E102" s="3">
-        <v>-8300</v>
+        <v>-41000</v>
       </c>
       <c r="F102" s="3">
-        <v>-18400</v>
+        <v>-8100</v>
       </c>
       <c r="G102" s="3">
-        <v>47500</v>
+        <v>-17800</v>
       </c>
       <c r="H102" s="3">
-        <v>49600</v>
+        <v>46000</v>
       </c>
       <c r="I102" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>48000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PT_YR_FIN.xlsx
@@ -730,16 +730,16 @@
         <v>23900</v>
       </c>
       <c r="F8" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="G8" s="3">
-        <v>177100</v>
+        <v>177500</v>
       </c>
       <c r="H8" s="3">
-        <v>220900</v>
+        <v>221400</v>
       </c>
       <c r="I8" s="3">
-        <v>78400</v>
+        <v>78500</v>
       </c>
       <c r="J8" s="3">
         <v>7600</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="E9" s="3">
         <v>12400</v>
       </c>
       <c r="F9" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="G9" s="3">
-        <v>106000</v>
+        <v>106300</v>
       </c>
       <c r="H9" s="3">
-        <v>149500</v>
+        <v>149800</v>
       </c>
       <c r="I9" s="3">
-        <v>51300</v>
+        <v>51400</v>
       </c>
       <c r="J9" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -808,16 +808,16 @@
         <v>11500</v>
       </c>
       <c r="F10" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="G10" s="3">
-        <v>71000</v>
+        <v>71200</v>
       </c>
       <c r="H10" s="3">
-        <v>71500</v>
+        <v>71600</v>
       </c>
       <c r="I10" s="3">
-        <v>27000</v>
+        <v>27100</v>
       </c>
       <c r="J10" s="3">
         <v>-700</v>
@@ -936,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="E14" s="3">
         <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="G14" s="3">
         <v>27600</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33700</v>
+        <v>33800</v>
       </c>
       <c r="E17" s="3">
         <v>34500</v>
       </c>
       <c r="F17" s="3">
-        <v>82800</v>
+        <v>83000</v>
       </c>
       <c r="G17" s="3">
-        <v>305000</v>
+        <v>305700</v>
       </c>
       <c r="H17" s="3">
-        <v>219400</v>
+        <v>219900</v>
       </c>
       <c r="I17" s="3">
-        <v>86000</v>
+        <v>86200</v>
       </c>
       <c r="J17" s="3">
         <v>35300</v>
@@ -1073,10 +1073,10 @@
         <v>-10600</v>
       </c>
       <c r="F18" s="3">
-        <v>-30700</v>
+        <v>-30800</v>
       </c>
       <c r="G18" s="3">
-        <v>-127900</v>
+        <v>-128200</v>
       </c>
       <c r="H18" s="3">
         <v>1600</v>
@@ -1085,7 +1085,7 @@
         <v>-7700</v>
       </c>
       <c r="J18" s="3">
-        <v>-27700</v>
+        <v>-27800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-22600</v>
+        <v>-22700</v>
       </c>
       <c r="E21" s="3">
         <v>-7900</v>
       </c>
       <c r="F21" s="3">
-        <v>-31900</v>
+        <v>-32000</v>
       </c>
       <c r="G21" s="3">
-        <v>-122900</v>
+        <v>-123200</v>
       </c>
       <c r="H21" s="3">
         <v>1700</v>
@@ -1180,7 +1180,7 @@
         <v>-8600</v>
       </c>
       <c r="J21" s="3">
-        <v>-27200</v>
+        <v>-27300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26700</v>
+        <v>-26800</v>
       </c>
       <c r="E23" s="3">
-        <v>-14000</v>
+        <v>-14100</v>
       </c>
       <c r="F23" s="3">
-        <v>-34000</v>
+        <v>-34100</v>
       </c>
       <c r="G23" s="3">
-        <v>-124600</v>
+        <v>-124900</v>
       </c>
       <c r="H23" s="3">
         <v>1100</v>
       </c>
       <c r="I23" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="J23" s="3">
-        <v>-27600</v>
+        <v>-27700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1363,10 +1363,10 @@
         <v>-15000</v>
       </c>
       <c r="F26" s="3">
-        <v>-40800</v>
+        <v>-40900</v>
       </c>
       <c r="G26" s="3">
-        <v>-124900</v>
+        <v>-125200</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
@@ -1375,7 +1375,7 @@
         <v>-11700</v>
       </c>
       <c r="J26" s="3">
-        <v>-27600</v>
+        <v>-27700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26200</v>
+        <v>-26300</v>
       </c>
       <c r="E27" s="3">
         <v>-14000</v>
       </c>
       <c r="F27" s="3">
-        <v>-40500</v>
+        <v>-40600</v>
       </c>
       <c r="G27" s="3">
-        <v>-124800</v>
+        <v>-125100</v>
       </c>
       <c r="H27" s="3">
         <v>-10300</v>
@@ -1414,7 +1414,7 @@
         <v>-18000</v>
       </c>
       <c r="J27" s="3">
-        <v>-33400</v>
+        <v>-33500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1630,16 +1630,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26200</v>
+        <v>-26300</v>
       </c>
       <c r="E33" s="3">
         <v>-14000</v>
       </c>
       <c r="F33" s="3">
-        <v>-40500</v>
+        <v>-40600</v>
       </c>
       <c r="G33" s="3">
-        <v>-124800</v>
+        <v>-125100</v>
       </c>
       <c r="H33" s="3">
         <v>-10300</v>
@@ -1648,7 +1648,7 @@
         <v>-18000</v>
       </c>
       <c r="J33" s="3">
-        <v>-33400</v>
+        <v>-33500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,16 +1708,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26200</v>
+        <v>-26300</v>
       </c>
       <c r="E35" s="3">
         <v>-14000</v>
       </c>
       <c r="F35" s="3">
-        <v>-40500</v>
+        <v>-40600</v>
       </c>
       <c r="G35" s="3">
-        <v>-124800</v>
+        <v>-125100</v>
       </c>
       <c r="H35" s="3">
         <v>-10300</v>
@@ -1726,7 +1726,7 @@
         <v>-18000</v>
       </c>
       <c r="J35" s="3">
-        <v>-33400</v>
+        <v>-33500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34400</v>
+        <v>34500</v>
       </c>
       <c r="E41" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="F41" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="G41" s="3">
         <v>14200</v>
       </c>
       <c r="H41" s="3">
-        <v>63000</v>
+        <v>63200</v>
       </c>
       <c r="I41" s="3">
-        <v>51100</v>
+        <v>51200</v>
       </c>
       <c r="J41" s="3">
         <v>3800</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="E43" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="F43" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="G43" s="3">
-        <v>70000</v>
+        <v>70200</v>
       </c>
       <c r="H43" s="3">
-        <v>197600</v>
+        <v>198100</v>
       </c>
       <c r="I43" s="3">
-        <v>247000</v>
+        <v>247600</v>
       </c>
       <c r="J43" s="3">
-        <v>65900</v>
+        <v>66000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,7 +1981,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
         <v>21400</v>
@@ -1990,10 +1990,10 @@
         <v>27300</v>
       </c>
       <c r="G45" s="3">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="H45" s="3">
-        <v>43200</v>
+        <v>43300</v>
       </c>
       <c r="I45" s="3">
         <v>8300</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>53600</v>
+        <v>53700</v>
       </c>
       <c r="E46" s="3">
-        <v>72600</v>
+        <v>72800</v>
       </c>
       <c r="F46" s="3">
-        <v>99300</v>
+        <v>99500</v>
       </c>
       <c r="G46" s="3">
-        <v>159800</v>
+        <v>160200</v>
       </c>
       <c r="H46" s="3">
-        <v>304500</v>
+        <v>305200</v>
       </c>
       <c r="I46" s="3">
-        <v>306700</v>
+        <v>307400</v>
       </c>
       <c r="J46" s="3">
-        <v>72000</v>
+        <v>72200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2074,7 +2074,7 @@
         <v>11300</v>
       </c>
       <c r="I47" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72900</v>
+        <v>73000</v>
       </c>
       <c r="E54" s="3">
-        <v>104900</v>
+        <v>105100</v>
       </c>
       <c r="F54" s="3">
-        <v>134800</v>
+        <v>135100</v>
       </c>
       <c r="G54" s="3">
-        <v>215000</v>
+        <v>215500</v>
       </c>
       <c r="H54" s="3">
-        <v>326300</v>
+        <v>327000</v>
       </c>
       <c r="I54" s="3">
-        <v>337700</v>
+        <v>338400</v>
       </c>
       <c r="J54" s="3">
-        <v>77400</v>
+        <v>77600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
@@ -2453,16 +2453,16 @@
         <v>18300</v>
       </c>
       <c r="G58" s="3">
-        <v>96600</v>
+        <v>96800</v>
       </c>
       <c r="H58" s="3">
-        <v>126100</v>
+        <v>126300</v>
       </c>
       <c r="I58" s="3">
-        <v>201600</v>
+        <v>202000</v>
       </c>
       <c r="J58" s="3">
-        <v>52700</v>
+        <v>52800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="E59" s="3">
-        <v>52800</v>
+        <v>53000</v>
       </c>
       <c r="F59" s="3">
-        <v>52100</v>
+        <v>52300</v>
       </c>
       <c r="G59" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="H59" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="I59" s="3">
-        <v>71200</v>
+        <v>71400</v>
       </c>
       <c r="J59" s="3">
         <v>25100</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72500</v>
+        <v>72600</v>
       </c>
       <c r="E60" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="F60" s="3">
-        <v>71900</v>
+        <v>72000</v>
       </c>
       <c r="G60" s="3">
-        <v>149000</v>
+        <v>149300</v>
       </c>
       <c r="H60" s="3">
-        <v>176400</v>
+        <v>176800</v>
       </c>
       <c r="I60" s="3">
-        <v>278800</v>
+        <v>279400</v>
       </c>
       <c r="J60" s="3">
-        <v>78700</v>
+        <v>78900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="E61" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="F61" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="G61" s="3">
         <v>14000</v>
@@ -2576,7 +2576,7 @@
         <v>3000</v>
       </c>
       <c r="I61" s="3">
-        <v>64700</v>
+        <v>64900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>1200</v>
       </c>
       <c r="I62" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>128300</v>
+        <v>128500</v>
       </c>
       <c r="E66" s="3">
-        <v>135900</v>
+        <v>136200</v>
       </c>
       <c r="F66" s="3">
-        <v>151200</v>
+        <v>151500</v>
       </c>
       <c r="G66" s="3">
-        <v>188900</v>
+        <v>189300</v>
       </c>
       <c r="H66" s="3">
-        <v>180600</v>
+        <v>181000</v>
       </c>
       <c r="I66" s="3">
-        <v>346200</v>
+        <v>347000</v>
       </c>
       <c r="J66" s="3">
-        <v>78700</v>
+        <v>78900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,19 +2968,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-333000</v>
+        <v>-333700</v>
       </c>
       <c r="E72" s="3">
-        <v>-306800</v>
+        <v>-307500</v>
       </c>
       <c r="F72" s="3">
-        <v>-292800</v>
+        <v>-293400</v>
       </c>
       <c r="G72" s="3">
-        <v>-252300</v>
+        <v>-252800</v>
       </c>
       <c r="H72" s="3">
-        <v>-120000</v>
+        <v>-120300</v>
       </c>
       <c r="I72" s="3">
         <v>-8600</v>
@@ -3124,19 +3124,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-55400</v>
+        <v>-55500</v>
       </c>
       <c r="E76" s="3">
-        <v>-31000</v>
+        <v>-31100</v>
       </c>
       <c r="F76" s="3">
         <v>-16400</v>
       </c>
       <c r="G76" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="H76" s="3">
-        <v>145700</v>
+        <v>146000</v>
       </c>
       <c r="I76" s="3">
         <v>-8600</v>
@@ -3246,16 +3246,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26200</v>
+        <v>-26300</v>
       </c>
       <c r="E81" s="3">
         <v>-14000</v>
       </c>
       <c r="F81" s="3">
-        <v>-40500</v>
+        <v>-40600</v>
       </c>
       <c r="G81" s="3">
-        <v>-124800</v>
+        <v>-125100</v>
       </c>
       <c r="H81" s="3">
         <v>-10300</v>
@@ -3264,7 +3264,7 @@
         <v>-18000</v>
       </c>
       <c r="J81" s="3">
-        <v>-33400</v>
+        <v>-33500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E89" s="3">
         <v>-4400</v>
       </c>
       <c r="F89" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G89" s="3">
-        <v>24100</v>
+        <v>24200</v>
       </c>
       <c r="H89" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="I89" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="J89" s="3">
         <v>-17000</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="E94" s="3">
         <v>-16500</v>
       </c>
       <c r="F94" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="G94" s="3">
-        <v>-74200</v>
+        <v>-74400</v>
       </c>
       <c r="H94" s="3">
-        <v>34500</v>
+        <v>34600</v>
       </c>
       <c r="I94" s="3">
-        <v>-199100</v>
+        <v>-199500</v>
       </c>
       <c r="J94" s="3">
         <v>-14900</v>
@@ -3924,19 +3924,19 @@
         <v>-8000</v>
       </c>
       <c r="E100" s="3">
-        <v>-18200</v>
+        <v>-18300</v>
       </c>
       <c r="F100" s="3">
-        <v>-39500</v>
+        <v>-39600</v>
       </c>
       <c r="G100" s="3">
-        <v>30900</v>
+        <v>31000</v>
       </c>
       <c r="H100" s="3">
         <v>-6800</v>
       </c>
       <c r="I100" s="3">
-        <v>219900</v>
+        <v>220400</v>
       </c>
       <c r="J100" s="3">
         <v>35400</v>
@@ -4002,7 +4002,7 @@
         <v>4300</v>
       </c>
       <c r="E102" s="3">
-        <v>-41000</v>
+        <v>-41100</v>
       </c>
       <c r="F102" s="3">
         <v>-8100</v>
@@ -4011,10 +4011,10 @@
         <v>-17800</v>
       </c>
       <c r="H102" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="I102" s="3">
-        <v>48000</v>
+        <v>48100</v>
       </c>
       <c r="J102" s="3">
         <v>3500</v>
